--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="nvda" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Q1</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>净利润</t>
+  </si>
+  <si>
+    <t>Q1（ 3月1号--5月31号）</t>
+  </si>
+  <si>
+    <t>Q2（6月1号--8月31号）</t>
+  </si>
+  <si>
+    <t>Q3（ 9月1号--11月31号）</t>
+  </si>
+  <si>
+    <t>Q4（12月1号--2月31号）</t>
   </si>
   <si>
     <t>EPS增长</t>
@@ -131,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +162,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -167,17 +191,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,23 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -234,54 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +246,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +329,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +395,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,163 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,37 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,16 +572,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,157 +609,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,8 +786,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -846,16 +866,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,7 +892,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8122920" y="2377440"/>
+          <a:off x="7360920" y="2339340"/>
           <a:ext cx="5029200" cy="1211580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1190,36 +1210,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1"/>
@@ -1396,7 +1416,7 @@
       <c r="F6">
         <v>137</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="2"/>
       <c r="I6">
         <v>0.22</v>
       </c>
@@ -1412,7 +1432,7 @@
       <c r="M6">
         <v>128</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="2"/>
       <c r="P6">
         <v>0.31</v>
       </c>
@@ -1428,7 +1448,7 @@
       <c r="T6">
         <v>173</v>
       </c>
-      <c r="V6" s="5"/>
+      <c r="V6" s="2"/>
       <c r="W6">
         <v>0.35</v>
       </c>
@@ -1444,7 +1464,7 @@
       <c r="AA6">
         <v>193</v>
       </c>
-      <c r="AC6" s="5"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
@@ -1468,7 +1488,7 @@
       <c r="G7" s="3">
         <v>-0.0219</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="2"/>
       <c r="I7">
         <v>0.05</v>
       </c>
@@ -1487,7 +1507,7 @@
       <c r="N7" s="3">
         <v>-0.7969</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="2"/>
       <c r="P7">
         <v>0.44</v>
       </c>
@@ -1506,7 +1526,7 @@
       <c r="U7" s="3">
         <v>0.4277</v>
       </c>
-      <c r="V7" s="5"/>
+      <c r="V7" s="2"/>
       <c r="W7">
         <v>0.35</v>
       </c>
@@ -1525,7 +1545,7 @@
       <c r="AB7" s="3">
         <v>0.0725</v>
       </c>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
@@ -1549,7 +1569,7 @@
       <c r="G8" s="3">
         <v>0.4627</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>0.575</v>
       </c>
       <c r="I8">
@@ -1570,7 +1590,7 @@
       <c r="N8" s="3">
         <v>8.7308</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>0.579</v>
       </c>
       <c r="P8">
@@ -1591,7 +1611,7 @@
       <c r="U8" s="3">
         <v>1.1943</v>
       </c>
-      <c r="V8" s="5"/>
+      <c r="V8" s="2"/>
       <c r="W8" t="s">
         <v>10</v>
       </c>
@@ -1610,7 +1630,7 @@
       <c r="AB8" t="s">
         <v>10</v>
       </c>
-      <c r="AC8" s="5"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
@@ -1634,7 +1654,7 @@
       <c r="G9" s="4">
         <v>1.26</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>0.594</v>
       </c>
       <c r="I9">
@@ -1655,7 +1675,7 @@
       <c r="N9" s="4">
         <v>1.23</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>0.584</v>
       </c>
       <c r="P9">
@@ -1676,7 +1696,7 @@
       <c r="U9" s="4">
         <v>0.55</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="7">
         <v>0.595</v>
       </c>
       <c r="W9" t="s">
@@ -1697,7 +1717,7 @@
       <c r="AB9" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="7"/>
     </row>
     <row r="12" spans="2:41">
       <c r="B12" s="1" t="s">
@@ -1926,25 +1946,25 @@
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="2"/>
       <c r="H15" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="V15">
         <v>761</v>
       </c>
       <c r="X15">
         <v>190</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="2">
         <v>82</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="2"/>
       <c r="AB15">
         <v>79</v>
       </c>
@@ -1957,10 +1977,10 @@
       <c r="AH15">
         <v>203</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="2">
         <v>97</v>
       </c>
-      <c r="AK15" s="5"/>
+      <c r="AK15" s="2"/>
       <c r="AL15">
         <v>93</v>
       </c>
@@ -1978,10 +1998,10 @@
       <c r="D16">
         <v>189</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>143</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="2"/>
       <c r="H16">
         <v>113</v>
       </c>
@@ -1994,10 +2014,10 @@
       <c r="N16">
         <v>214</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="2">
         <v>151</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="2"/>
       <c r="R16">
         <v>119</v>
       </c>
@@ -2016,10 +2036,10 @@
       <c r="Y16" s="3">
         <v>0.0895</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="2">
         <v>240</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="7">
         <v>1.9268</v>
       </c>
       <c r="AB16">
@@ -2046,10 +2066,10 @@
       <c r="AI16" s="3">
         <v>0.1084</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="2">
         <v>296</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AK16" s="7">
         <v>2.0515</v>
       </c>
       <c r="AL16">
@@ -2081,10 +2101,10 @@
       <c r="E17" s="3">
         <v>0.0847</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>409</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>1.8601</v>
       </c>
       <c r="H17">
@@ -2111,10 +2131,10 @@
       <c r="O17" s="3">
         <v>0.0981</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="2">
         <v>416</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="7">
         <v>1.755</v>
       </c>
       <c r="R17">
@@ -2141,10 +2161,10 @@
       <c r="Y17" s="4">
         <v>0.15</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="2">
         <v>501</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="8">
         <v>1.09</v>
       </c>
       <c r="AB17">
@@ -2313,10 +2333,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2331,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="2:35">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2341,7 +2361,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2352,7 +2372,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -2363,7 +2383,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -2414,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2429,10 +2449,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -2453,13 +2473,13 @@
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -2480,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
         <v>4</v>
@@ -2507,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>5</v>
@@ -2517,16 +2537,16 @@
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5">
@@ -2541,11 +2561,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="U5">
         <v>142.2</v>
       </c>
@@ -2558,9 +2578,9 @@
       <c r="X5" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" t="s">
         <v>10</v>
       </c>
@@ -2574,9 +2594,9 @@
         <v>10</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI5" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35">
       <c r="A6">
@@ -2594,8 +2614,8 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="L6">
         <v>271</v>
       </c>
@@ -2609,10 +2629,10 @@
         <v>0.314</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="U6">
         <v>260.6</v>
       </c>
@@ -2625,9 +2645,9 @@
       <c r="X6" s="3">
         <v>1.298</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
       <c r="AB6">
         <v>0.36</v>
       </c>
@@ -2647,9 +2667,9 @@
         <v>1.963</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" s="6">
+        <v>29</v>
+      </c>
+      <c r="AI6" s="7">
         <v>0.696</v>
       </c>
     </row>
@@ -2673,9 +2693,9 @@
         <v>1.175</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.622</v>
       </c>
       <c r="L7">
@@ -2691,13 +2711,13 @@
         <v>0.067</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7">
         <v>1.006</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S7">
         <v>0.07</v>
@@ -2715,14 +2735,26 @@
         <v>1.984</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="8">
         <v>0.85</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="AA7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="6"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
@@ -2744,68 +2776,63 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>619.9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.429</v>
       </c>
       <c r="D18">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>102.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>619.9</v>
+        <v>1043.1</v>
       </c>
       <c r="C19" s="3">
-        <v>0.429</v>
+        <v>0.683</v>
       </c>
       <c r="D19">
-        <v>102.9</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.92</v>
+        <v>170.7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.116</v>
+      </c>
+      <c r="F19">
+        <v>1.3</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>1043.1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.683</v>
-      </c>
-      <c r="D20">
-        <v>170.7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.116</v>
-      </c>
-      <c r="F20">
-        <v>1.3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="3">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3">
         <v>0.703</v>
       </c>
     </row>
@@ -2919,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2934,10 +2961,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -2958,13 +2985,13 @@
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -2985,13 +3012,13 @@
         <v>5</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
         <v>4</v>
@@ -3012,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>5</v>
@@ -3040,7 +3067,7 @@
         <v>0.31</v>
       </c>
       <c r="Z5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="3">
         <v>0.369</v>
@@ -3066,7 +3093,7 @@
         <v>-0.59</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="4">
         <v>0.43</v>
@@ -3095,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3123,7 +3150,7 @@
         <v>0.22</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
     <sheet name="nvda" sheetId="2" r:id="rId2"/>
     <sheet name="tal" sheetId="1" r:id="rId3"/>
     <sheet name="新东方" sheetId="3" r:id="rId4"/>
-    <sheet name="temp" sheetId="5" r:id="rId5"/>
+    <sheet name="腾讯" sheetId="6" r:id="rId5"/>
+    <sheet name="temp" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>优秀公司指标
 营收的增长速度要超出运营支出的增长速度，代表这公司的产品好卖
@@ -490,18 +491,542 @@
   <si>
     <t>截至2017年5月31日，学习中心总数达855家，与去年同期相比增加107家，与上季度相比增加52家，2016年同期学习中心总数为748家。截至2017年5月31日，学校总数为77家。</t>
   </si>
+  <si>
+    <t>经营利润</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营利润</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Q3（ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营利润</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAAP（算上投资收益）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1（ 1月1号--3月31号）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q2（ 4月1号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q4（ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年股价，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年股价，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%小于净利润增速</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年股价，112-151，上涨34%大于净利润增速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16年股价，150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%小于净利润增速</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17年股价，187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%大于净利润增速</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,344 +1062,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -882,255 +1104,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1164,64 +1141,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1232,7 +1204,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1254,7 +1226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1559,21 +1531,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1565,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1611,7 +1583,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1629,7 +1601,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1647,7 +1619,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1665,7 +1637,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1683,7 +1655,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1701,7 +1673,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1719,7 +1691,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1737,7 +1709,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1755,7 +1727,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1773,7 +1745,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1791,7 +1763,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1809,7 +1781,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1827,7 +1799,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1845,7 +1817,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1863,7 +1835,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1881,7 +1853,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1899,7 +1871,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1917,7 +1889,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1935,7 +1907,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1953,7 +1925,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1971,7 +1943,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1989,7 +1961,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2007,7 +1979,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2025,7 +1997,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2043,7 +2015,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2061,7 +2033,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2083,138 +2055,137 @@
   <mergeCells count="1">
     <mergeCell ref="A1:P28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="8.37962962962963" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="16" width="11.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="5" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="2:33">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2240,7 @@
       <c r="S5" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="U5" t="s">
@@ -2296,7 +2267,7 @@
       <c r="AB5" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AD5" t="s">
@@ -2312,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2381,7 +2352,7 @@
       </c>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2395,32 +2366,32 @@
         <v>1151</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F7">
         <v>134</v>
       </c>
       <c r="G7" s="1">
-        <v>-0.0219</v>
+        <v>-2.1899999999999999E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7">
         <v>0.05</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.7727</v>
+        <v>-0.77270000000000005</v>
       </c>
       <c r="K7">
         <v>1153</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0453</v>
+        <v>4.53E-2</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" s="1">
-        <v>-0.7969</v>
+        <v>-0.79690000000000005</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7">
@@ -2433,13 +2404,13 @@
         <v>1305</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0653</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="V7">
         <v>247</v>
       </c>
       <c r="W7" s="1">
-        <v>0.4277</v>
+        <v>0.42770000000000002</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7">
@@ -2452,17 +2423,17 @@
         <v>1401</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.1199</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="AE7">
         <v>207</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>17</v>
       </c>
@@ -2484,8 +2455,8 @@
       <c r="G8" s="1">
         <v>0.4627</v>
       </c>
-      <c r="H8" s="8">
-        <v>0.575</v>
+      <c r="H8" s="7">
+        <v>0.57499999999999996</v>
       </c>
       <c r="I8">
         <v>0.4</v>
@@ -2497,34 +2468,34 @@
         <v>1428</v>
       </c>
       <c r="L8" s="1">
-        <v>0.2385</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="M8">
         <v>261</v>
       </c>
       <c r="N8" s="1">
-        <v>8.7308</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0.579</v>
+        <v>8.7308000000000003</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.57899999999999996</v>
       </c>
       <c r="P8">
         <v>0.83</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.8864</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="R8">
         <v>2004</v>
       </c>
       <c r="S8" s="1">
-        <v>0.5356</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="V8">
         <v>542</v>
       </c>
       <c r="W8" s="1">
-        <v>1.1943</v>
+        <v>1.1942999999999999</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8">
@@ -2537,7 +2508,7 @@
         <v>2173</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AC8">
         <v>570</v>
@@ -2546,13 +2517,13 @@
         <v>704</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.401</v>
-      </c>
-      <c r="AG8" s="8">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="AG8" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2574,8 +2545,8 @@
       <c r="G9" s="2">
         <v>1.26</v>
       </c>
-      <c r="H9" s="8">
-        <v>0.594</v>
+      <c r="H9" s="7">
+        <v>0.59399999999999997</v>
       </c>
       <c r="I9">
         <v>0.92</v>
@@ -2587,7 +2558,7 @@
         <v>2230</v>
       </c>
       <c r="L9" s="2">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M9">
         <v>583</v>
@@ -2595,8 +2566,8 @@
       <c r="N9" s="2">
         <v>1.23</v>
       </c>
-      <c r="O9" s="8">
-        <v>0.584</v>
+      <c r="O9" s="7">
+        <v>0.58399999999999996</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -2618,10 +2589,10 @@
         <v>838</v>
       </c>
       <c r="W9" s="2">
-        <v>0.55</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.595</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y9">
         <v>1.78</v>
@@ -2639,7 +2610,7 @@
         <v>728</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE9">
         <v>1118</v>
@@ -2647,16 +2618,16 @@
       <c r="AF9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AG9" s="8">
-        <v>0.619</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
+      <c r="AG9" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="4:32">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -2664,112 +2635,112 @@
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:45">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3" t="s">
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-    </row>
-    <row r="16" spans="2:45">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-    </row>
-    <row r="17" spans="2:41">
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2946,7 +2917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2986,25 +2957,25 @@
         <v>1244</v>
       </c>
       <c r="W19" s="1">
-        <v>0.6347</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="X19">
         <v>207</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0895</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="Z19" s="4">
         <v>240</v>
       </c>
-      <c r="AA19" s="8">
-        <v>1.9268</v>
+      <c r="AA19" s="7">
+        <v>1.9268000000000001</v>
       </c>
       <c r="AB19">
         <v>127</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.6076</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="AD19">
         <v>186</v>
@@ -3016,7 +2987,7 @@
         <v>1348</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.6642</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AH19">
         <v>225</v>
@@ -3027,14 +2998,14 @@
       <c r="AJ19" s="4">
         <v>296</v>
       </c>
-      <c r="AK19" s="8">
-        <v>2.0515</v>
+      <c r="AK19" s="7">
+        <v>2.0514999999999999</v>
       </c>
       <c r="AL19">
         <v>128</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.3763</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="AN19">
         <v>176</v>
@@ -3043,7 +3014,7 @@
         <v>-0.1111</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3051,19 +3022,19 @@
         <v>1027</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4949</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="D20">
         <v>205</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0847</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="F20" s="4">
         <v>409</v>
       </c>
-      <c r="G20" s="8">
-        <v>1.8601</v>
+      <c r="G20" s="7">
+        <v>1.8601000000000001</v>
       </c>
       <c r="H20">
         <v>140</v>
@@ -3075,25 +3046,25 @@
         <v>156</v>
       </c>
       <c r="K20" s="1">
-        <v>-0.0983</v>
+        <v>-9.8299999999999998E-2</v>
       </c>
       <c r="L20">
         <v>1186</v>
       </c>
       <c r="M20" s="1">
-        <v>0.5186</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="N20">
         <v>235</v>
       </c>
       <c r="O20" s="1">
-        <v>0.0981</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="P20" s="4">
         <v>416</v>
       </c>
-      <c r="Q20" s="8">
-        <v>1.755</v>
+      <c r="Q20" s="7">
+        <v>1.7549999999999999</v>
       </c>
       <c r="R20">
         <v>142</v>
@@ -3105,7 +3076,7 @@
         <v>251</v>
       </c>
       <c r="U20" s="1">
-        <v>0.5399</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="V20">
         <v>1561</v>
@@ -3122,8 +3093,8 @@
       <c r="Z20" s="4">
         <v>501</v>
       </c>
-      <c r="AA20" s="9">
-        <v>1.09</v>
+      <c r="AA20" s="8">
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB20">
         <v>144</v>
@@ -3141,7 +3112,7 @@
         <v>1739</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH20">
         <v>254</v>
@@ -3152,7 +3123,7 @@
       <c r="AJ20" s="4">
         <v>606</v>
       </c>
-      <c r="AK20" s="9">
+      <c r="AK20" s="8">
         <v>1.05</v>
       </c>
       <c r="AL20">
@@ -3168,30 +3139,30 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="C23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
@@ -3213,7 +3184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>12</v>
       </c>
@@ -3234,7 +3205,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>13</v>
       </c>
@@ -3242,23 +3213,23 @@
         <v>4280</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0705</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="F30">
         <v>563</v>
       </c>
       <c r="G30" s="1">
-        <v>-0.031</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="H30">
         <v>0.9</v>
       </c>
       <c r="I30" s="1">
-        <v>-0.0426</v>
+        <v>-4.2599999999999999E-2</v>
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3266,7 +3237,7 @@
         <v>4130</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.035</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F31">
         <v>440</v>
@@ -3278,11 +3249,11 @@
         <v>0.74</v>
       </c>
       <c r="I31" s="1">
-        <v>-0.1778</v>
+        <v>-0.17780000000000001</v>
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3290,23 +3261,23 @@
         <v>4682</v>
       </c>
       <c r="C32" s="1">
-        <v>0.1337</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="F32">
         <v>631</v>
       </c>
       <c r="G32" s="1">
-        <v>0.4341</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H32">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>0.5135</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3314,23 +3285,23 @@
         <v>5010</v>
       </c>
       <c r="C33" s="1">
-        <v>0.0701</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="F33">
         <v>614</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.0269</v>
+        <v>-2.69E-2</v>
       </c>
       <c r="H33">
         <v>1.08</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.0357</v>
+        <v>-3.5700000000000003E-2</v>
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3338,7 +3309,7 @@
         <v>6910</v>
       </c>
       <c r="C34" s="1">
-        <v>0.3792</v>
+        <v>0.37919999999999998</v>
       </c>
       <c r="D34">
         <v>2129</v>
@@ -3353,21 +3324,21 @@
         <v>2.57</v>
       </c>
       <c r="I34" s="1">
-        <v>1.3796</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0.588</v>
-      </c>
-      <c r="K34" s="5" t="s">
+        <v>1.3795999999999999</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3395,25 +3366,20 @@
       <c r="I35" s="2">
         <v>0.88</v>
       </c>
-      <c r="J35" s="8">
-        <v>0.599</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B15:K16"/>
-    <mergeCell ref="L15:U16"/>
     <mergeCell ref="V15:AE16"/>
     <mergeCell ref="AF15:AO16"/>
     <mergeCell ref="C23:G24"/>
@@ -3421,113 +3387,117 @@
     <mergeCell ref="I3:O4"/>
     <mergeCell ref="P3:X4"/>
     <mergeCell ref="Y3:AG4"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B15:K16"/>
+    <mergeCell ref="L15:U16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="12.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="10.6296296296296" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="2:35">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="3" spans="2:35">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -3631,7 +3601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>15</v>
       </c>
@@ -3646,7 +3616,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3665,7 +3635,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="U5">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -3696,7 +3666,7 @@
       </c>
       <c r="AI5" s="4"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>17</v>
       </c>
@@ -3707,7 +3677,7 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -3718,7 +3688,7 @@
         <v>271</v>
       </c>
       <c r="M6" s="1">
-        <v>0.564</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="N6">
         <v>55.74</v>
@@ -3732,10 +3702,10 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="U6">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="V6" s="1">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="W6">
         <v>13.6</v>
@@ -3756,22 +3726,22 @@
         <v>316.3</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.807</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="AF6">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1.963</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="AH6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="8">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AI6" s="7">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>18</v>
       </c>
@@ -3779,7 +3749,7 @@
         <v>0.32</v>
       </c>
       <c r="D7">
-        <v>321.9</v>
+        <v>321.89999999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0.65</v>
@@ -3793,41 +3763,41 @@
       <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.622</v>
       </c>
       <c r="L7">
         <v>456</v>
       </c>
       <c r="M7" s="1">
-        <v>0.681</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="N7">
         <v>59.5</v>
       </c>
       <c r="O7" s="1">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>1.006</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S7">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U7">
         <v>433.27</v>
       </c>
       <c r="V7" s="1">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="W7">
-        <v>40.66</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="X7" s="1">
         <v>1.984</v>
@@ -3835,26 +3805,26 @@
       <c r="Y7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <v>0.85</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="16" spans="2:9">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3880,7 +3850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3888,7 +3858,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3896,7 +3866,7 @@
         <v>619.9</v>
       </c>
       <c r="C18" s="1">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D18">
         <v>102.9</v>
@@ -3908,21 +3878,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1043.1</v>
+        <v>1043.0999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.683</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="D19">
         <v>170.7</v>
       </c>
       <c r="E19" s="1">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F19">
         <v>1.3</v>
@@ -3931,7 +3901,7 @@
         <v>49</v>
       </c>
       <c r="I19" s="1">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3941,105 +3911,104 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="2:35">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="3" spans="2:35">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4143,12 +4112,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4156,7 +4125,7 @@
         <v>486.4</v>
       </c>
       <c r="W5" s="1">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="X5">
         <v>55.4</v>
@@ -4168,10 +4137,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4182,7 +4151,7 @@
         <v>467</v>
       </c>
       <c r="M6" s="1">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="N6">
         <v>4.3</v>
@@ -4200,7 +4169,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4226,12 +4195,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4258,24 +4227,1035 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="27" max="27" width="7.5" customWidth="1"/>
+    <col min="28" max="28" width="7.75" customWidth="1"/>
+    <col min="29" max="29" width="7.875" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1"/>
+    <col min="39" max="39" width="9.5" customWidth="1"/>
+    <col min="40" max="41" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="23"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>0.69</v>
+      </c>
+      <c r="D7" s="14">
+        <v>18400</v>
+      </c>
+      <c r="F7" s="14">
+        <v>7790</v>
+      </c>
+      <c r="H7" s="14">
+        <v>6432</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.623</v>
+      </c>
+      <c r="M7" s="14">
+        <v>19746</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7843</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>5826</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="T7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="V7" s="14">
+        <v>19808</v>
+      </c>
+      <c r="X7" s="14">
+        <v>7515</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>5676</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="AE7">
+        <v>0.625</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>20978</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>7394</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>5954</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>0.73</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="14">
+        <v>22399</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F8" s="14">
+        <v>9372</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>6930</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="K8">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="14">
+        <v>23429</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="O8" s="14">
+        <v>10036</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>7396</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="T8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="V8" s="14">
+        <v>26594</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="X8" s="14">
+        <v>10331</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="Z8">
+        <v>11014</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>7584</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>30441</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>17780</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>10888</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>7198</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>0.97</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="14">
+        <v>31995</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F9" s="14">
+        <v>13398</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H9" s="14">
+        <v>9268</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>1.133</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="M9" s="14">
+        <v>35691</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="O9" s="14">
+        <v>14329</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>10880</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T9">
+        <v>1.121</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="V9" s="14">
+        <v>40388</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="X9" s="14">
+        <v>14460</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Z9">
+        <v>18560</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>10776</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>43864</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AI9" s="20">
+        <v>23626</v>
+      </c>
+      <c r="AJ9" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>13930</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM9" s="20">
+        <v>10523</v>
+      </c>
+      <c r="AN9" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="AO9" s="22">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1.494</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D10" s="14">
+        <v>49552</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10" s="14">
+        <v>19272</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="H10" s="14">
+        <v>14548</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="M10" s="20">
+        <v>56606</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="O10" s="20">
+        <v>22560</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>18254</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="V10" s="20">
+        <v>65210</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="X10" s="14">
+        <v>22746</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>33529</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>18047</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AE10">
+        <v>2.177</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>66392</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="AI10" s="20">
+        <v>31495</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>21853</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>21622</v>
+      </c>
+      <c r="AN10" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="14">
+        <v>60437</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26">
+        <v>27778</v>
+      </c>
+      <c r="F26" s="14">
+        <v>15563</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <v>1.66</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="AJ26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14">
+        <v>78932</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D27">
+        <v>30873</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.1114</v>
+      </c>
+      <c r="F27" s="14">
+        <v>23888</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="H27">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="AJ27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="14">
+        <v>102863</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="D28">
+        <v>41631</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F28" s="14">
+        <v>29108</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.2185</v>
+      </c>
+      <c r="H28">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="AJ28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14">
+        <v>151938</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="D29">
+        <v>67439</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>41447</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.4239</v>
+      </c>
+      <c r="H29">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="AJ29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="14">
+        <v>237760</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="D30">
+        <v>120835</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="F30" s="14">
+        <v>72471</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="H30">
+        <v>7.4989999999999997</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="AJ30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AD4"/>
+    <mergeCell ref="AE3:AO4"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C8">
         <v>5010</v>
       </c>
@@ -4288,7 +5268,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C9">
         <v>6910</v>
       </c>
@@ -4299,7 +5279,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C21">
         <v>0.35</v>
       </c>
@@ -4312,7 +5292,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0.99</v>
       </c>
@@ -4330,7 +5310,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>优秀公司指标
 营收的增长速度要超出运营支出的增长速度，代表这公司的产品好卖
@@ -492,269 +492,254 @@
     <t>截至2017年5月31日，学习中心总数达855家，与去年同期相比增加107家，与上季度相比增加52家，2016年同期学习中心总数为748家。截至2017年5月31日，学校总数为77家。</t>
   </si>
   <si>
+    <t>Q1（ 1月1号--3月31号）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q2（ 4月1号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Q3（ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q4（ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <t>GAAP（算上投资收益）</t>
+  </si>
+  <si>
     <t>经营利润</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>增长率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营利润</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Q3（ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营利润</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAAP（算上投资收益）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q1（ 1月1号--3月31号）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q2（ 4月1号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q4（ 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>13</t>
     </r>
     <r>
@@ -827,10 +812,16 @@
       </rPr>
       <t>%</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>14</t>
     </r>
     <r>
@@ -903,14 +894,19 @@
       </rPr>
       <t>%小于净利润增速</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>15年股价，112-151，上涨34%大于净利润增速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>16年股价，150</t>
     </r>
     <r>
@@ -963,10 +959,16 @@
       </rPr>
       <t>%小于净利润增速</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>17年股价，187</t>
     </r>
     <r>
@@ -1019,14 +1021,32 @@
       </rPr>
       <t>%大于净利润增速</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,7 +1066,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1062,41 +1081,344 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1104,13 +1426,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,82 +1682,126 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1204,7 +1812,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1226,7 +1834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1531,661 +2139,662 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P28"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8.37962962962963" customWidth="1"/>
     <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="11.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="12" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+    </row>
+    <row r="5" spans="2:33">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2813,7 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
@@ -2225,7 +2834,7 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="P5" t="s">
@@ -2240,7 +2849,7 @@
       <c r="S5" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="U5" t="s">
@@ -2252,7 +2861,7 @@
       <c r="W5" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="Y5" t="s">
@@ -2267,7 +2876,7 @@
       <c r="AB5" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AD5" t="s">
@@ -2279,11 +2888,11 @@
       <c r="AF5" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2302,7 +2911,7 @@
       <c r="F6">
         <v>137</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="11"/>
       <c r="I6">
         <v>0.22</v>
       </c>
@@ -2318,7 +2927,7 @@
       <c r="M6">
         <v>128</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="11"/>
       <c r="P6">
         <v>0.31</v>
       </c>
@@ -2334,7 +2943,7 @@
       <c r="V6">
         <v>173</v>
       </c>
-      <c r="X6" s="4"/>
+      <c r="X6" s="11"/>
       <c r="Y6">
         <v>0.35</v>
       </c>
@@ -2350,9 +2959,9 @@
       <c r="AE6">
         <v>193</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2366,34 +2975,34 @@
         <v>1151</v>
       </c>
       <c r="E7" s="1">
-        <v>4.3499999999999997E-2</v>
+        <v>0.0435</v>
       </c>
       <c r="F7">
         <v>134</v>
       </c>
       <c r="G7" s="1">
-        <v>-2.1899999999999999E-2</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>-0.0219</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7">
         <v>0.05</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.77270000000000005</v>
+        <v>-0.7727</v>
       </c>
       <c r="K7">
         <v>1153</v>
       </c>
       <c r="L7" s="1">
-        <v>4.53E-2</v>
+        <v>0.0453</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" s="1">
-        <v>-0.79690000000000005</v>
-      </c>
-      <c r="O7" s="4"/>
+        <v>-0.7969</v>
+      </c>
+      <c r="O7" s="11"/>
       <c r="P7">
         <v>0.44</v>
       </c>
@@ -2404,15 +3013,15 @@
         <v>1305</v>
       </c>
       <c r="S7" s="1">
-        <v>6.5299999999999997E-2</v>
+        <v>0.0653</v>
       </c>
       <c r="V7">
         <v>247</v>
       </c>
       <c r="W7" s="1">
-        <v>0.42770000000000002</v>
-      </c>
-      <c r="X7" s="4"/>
+        <v>0.4277</v>
+      </c>
+      <c r="X7" s="11"/>
       <c r="Y7">
         <v>0.35</v>
       </c>
@@ -2423,17 +3032,17 @@
         <v>1401</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.11990000000000001</v>
+        <v>0.1199</v>
       </c>
       <c r="AE7">
         <v>207</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+        <v>0.0725</v>
+      </c>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>17</v>
       </c>
@@ -2455,8 +3064,8 @@
       <c r="G8" s="1">
         <v>0.4627</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.57499999999999996</v>
+      <c r="H8" s="23">
+        <v>0.575</v>
       </c>
       <c r="I8">
         <v>0.4</v>
@@ -2468,36 +3077,36 @@
         <v>1428</v>
       </c>
       <c r="L8" s="1">
-        <v>0.23849999999999999</v>
+        <v>0.2385</v>
       </c>
       <c r="M8">
         <v>261</v>
       </c>
       <c r="N8" s="1">
-        <v>8.7308000000000003</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0.57899999999999996</v>
+        <v>8.7308</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0.579</v>
       </c>
       <c r="P8">
         <v>0.83</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.88639999999999997</v>
+        <v>0.8864</v>
       </c>
       <c r="R8">
         <v>2004</v>
       </c>
       <c r="S8" s="1">
-        <v>0.53559999999999997</v>
+        <v>0.5356</v>
       </c>
       <c r="V8">
         <v>542</v>
       </c>
       <c r="W8" s="1">
-        <v>1.1942999999999999</v>
-      </c>
-      <c r="X8" s="4"/>
+        <v>1.1943</v>
+      </c>
+      <c r="X8" s="11"/>
       <c r="Y8">
         <v>0.99</v>
       </c>
@@ -2508,7 +3117,7 @@
         <v>2173</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="AC8">
         <v>570</v>
@@ -2517,13 +3126,13 @@
         <v>704</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.4009999999999998</v>
-      </c>
-      <c r="AG8" s="7">
+        <v>2.401</v>
+      </c>
+      <c r="AG8" s="23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2545,8 +3154,8 @@
       <c r="G9" s="2">
         <v>1.26</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.59399999999999997</v>
+      <c r="H9" s="23">
+        <v>0.594</v>
       </c>
       <c r="I9">
         <v>0.92</v>
@@ -2558,7 +3167,7 @@
         <v>2230</v>
       </c>
       <c r="L9" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="M9">
         <v>583</v>
@@ -2566,8 +3175,8 @@
       <c r="N9" s="2">
         <v>1.23</v>
       </c>
-      <c r="O9" s="7">
-        <v>0.58399999999999996</v>
+      <c r="O9" s="23">
+        <v>0.584</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -2589,10 +3198,10 @@
         <v>838</v>
       </c>
       <c r="W9" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0.59499999999999997</v>
+        <v>0.55</v>
+      </c>
+      <c r="X9" s="23">
+        <v>0.595</v>
       </c>
       <c r="Y9">
         <v>1.78</v>
@@ -2610,7 +3219,7 @@
         <v>728</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AE9">
         <v>1118</v>
@@ -2618,16 +3227,16 @@
       <c r="AF9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AG9" s="7">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AG9" s="23">
+        <v>0.619</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:32">
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -2635,112 +3244,112 @@
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:4">
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:45">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13" t="s">
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+    </row>
+    <row r="16" spans="2:45">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+    </row>
+    <row r="17" spans="2:41">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -2753,10 +3362,10 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
@@ -2783,10 +3392,10 @@
       <c r="O17" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="R17" t="s">
@@ -2813,10 +3422,10 @@
       <c r="Y17" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AB17" t="s">
@@ -2843,10 +3452,10 @@
       <c r="AI17" t="s">
         <v>6</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AJ17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AK17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AL17" t="s">
@@ -2862,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2872,28 +3481,28 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="11"/>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="V18">
         <v>761</v>
       </c>
       <c r="X18">
         <v>190</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="11">
         <v>82</v>
       </c>
-      <c r="AA18" s="4"/>
+      <c r="AA18" s="11"/>
       <c r="AB18">
         <v>79</v>
       </c>
@@ -2906,10 +3515,10 @@
       <c r="AH18">
         <v>203</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AJ18" s="11">
         <v>97</v>
       </c>
-      <c r="AK18" s="4"/>
+      <c r="AK18" s="11"/>
       <c r="AL18">
         <v>93</v>
       </c>
@@ -2917,7 +3526,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2927,10 +3536,10 @@
       <c r="D19">
         <v>189</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="11">
         <v>143</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="11"/>
       <c r="H19">
         <v>113</v>
       </c>
@@ -2943,10 +3552,10 @@
       <c r="N19">
         <v>214</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="11">
         <v>151</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="11"/>
       <c r="R19">
         <v>119</v>
       </c>
@@ -2957,25 +3566,25 @@
         <v>1244</v>
       </c>
       <c r="W19" s="1">
-        <v>0.63470000000000004</v>
+        <v>0.6347</v>
       </c>
       <c r="X19">
         <v>207</v>
       </c>
       <c r="Y19" s="1">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="Z19" s="4">
+        <v>0.0895</v>
+      </c>
+      <c r="Z19" s="11">
         <v>240</v>
       </c>
-      <c r="AA19" s="7">
-        <v>1.9268000000000001</v>
+      <c r="AA19" s="23">
+        <v>1.9268</v>
       </c>
       <c r="AB19">
         <v>127</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.60760000000000003</v>
+        <v>0.6076</v>
       </c>
       <c r="AD19">
         <v>186</v>
@@ -2987,7 +3596,7 @@
         <v>1348</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.66420000000000001</v>
+        <v>0.6642</v>
       </c>
       <c r="AH19">
         <v>225</v>
@@ -2995,17 +3604,17 @@
       <c r="AI19" s="1">
         <v>0.1084</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AJ19" s="11">
         <v>296</v>
       </c>
-      <c r="AK19" s="7">
-        <v>2.0514999999999999</v>
+      <c r="AK19" s="23">
+        <v>2.0515</v>
       </c>
       <c r="AL19">
         <v>128</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.37630000000000002</v>
+        <v>0.3763</v>
       </c>
       <c r="AN19">
         <v>176</v>
@@ -3014,7 +3623,7 @@
         <v>-0.1111</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3022,19 +3631,19 @@
         <v>1027</v>
       </c>
       <c r="C20" s="1">
-        <v>0.49490000000000001</v>
+        <v>0.4949</v>
       </c>
       <c r="D20">
         <v>205</v>
       </c>
       <c r="E20" s="1">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="F20" s="4">
+        <v>0.0847</v>
+      </c>
+      <c r="F20" s="11">
         <v>409</v>
       </c>
-      <c r="G20" s="7">
-        <v>1.8601000000000001</v>
+      <c r="G20" s="23">
+        <v>1.8601</v>
       </c>
       <c r="H20">
         <v>140</v>
@@ -3046,25 +3655,25 @@
         <v>156</v>
       </c>
       <c r="K20" s="1">
-        <v>-9.8299999999999998E-2</v>
+        <v>-0.0983</v>
       </c>
       <c r="L20">
         <v>1186</v>
       </c>
       <c r="M20" s="1">
-        <v>0.51859999999999995</v>
+        <v>0.5186</v>
       </c>
       <c r="N20">
         <v>235</v>
       </c>
       <c r="O20" s="1">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="P20" s="4">
+        <v>0.0981</v>
+      </c>
+      <c r="P20" s="11">
         <v>416</v>
       </c>
-      <c r="Q20" s="7">
-        <v>1.7549999999999999</v>
+      <c r="Q20" s="23">
+        <v>1.755</v>
       </c>
       <c r="R20">
         <v>142</v>
@@ -3076,7 +3685,7 @@
         <v>251</v>
       </c>
       <c r="U20" s="1">
-        <v>0.53990000000000005</v>
+        <v>0.5399</v>
       </c>
       <c r="V20">
         <v>1561</v>
@@ -3090,11 +3699,11 @@
       <c r="Y20" s="2">
         <v>0.15</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="11">
         <v>501</v>
       </c>
-      <c r="AA20" s="8">
-        <v>1.0900000000000001</v>
+      <c r="AA20" s="15">
+        <v>1.09</v>
       </c>
       <c r="AB20">
         <v>144</v>
@@ -3112,7 +3721,7 @@
         <v>1739</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AH20">
         <v>254</v>
@@ -3120,10 +3729,10 @@
       <c r="AI20" s="2">
         <v>0.13</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AJ20" s="11">
         <v>606</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AK20" s="15">
         <v>1.05</v>
       </c>
       <c r="AL20">
@@ -3139,30 +3748,30 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="3:7">
+      <c r="C23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
@@ -3180,11 +3789,11 @@
       <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>12</v>
       </c>
@@ -3203,9 +3812,9 @@
       <c r="H29">
         <v>0.94</v>
       </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>13</v>
       </c>
@@ -3213,23 +3822,23 @@
         <v>4280</v>
       </c>
       <c r="C30" s="1">
-        <v>7.0499999999999993E-2</v>
+        <v>0.0705</v>
       </c>
       <c r="F30">
         <v>563</v>
       </c>
       <c r="G30" s="1">
-        <v>-3.1E-2</v>
+        <v>-0.031</v>
       </c>
       <c r="H30">
         <v>0.9</v>
       </c>
       <c r="I30" s="1">
-        <v>-4.2599999999999999E-2</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
+        <v>-0.0426</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3237,7 +3846,7 @@
         <v>4130</v>
       </c>
       <c r="C31" s="1">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.035</v>
       </c>
       <c r="F31">
         <v>440</v>
@@ -3249,11 +3858,11 @@
         <v>0.74</v>
       </c>
       <c r="I31" s="1">
-        <v>-0.17780000000000001</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
+        <v>-0.1778</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3261,23 +3870,23 @@
         <v>4682</v>
       </c>
       <c r="C32" s="1">
-        <v>0.13370000000000001</v>
+        <v>0.1337</v>
       </c>
       <c r="F32">
         <v>631</v>
       </c>
       <c r="G32" s="1">
-        <v>0.43409999999999999</v>
+        <v>0.4341</v>
       </c>
       <c r="H32">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="I32" s="1">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.5135</v>
+      </c>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3285,23 +3894,23 @@
         <v>5010</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0099999999999996E-2</v>
+        <v>0.0701</v>
       </c>
       <c r="F33">
         <v>614</v>
       </c>
       <c r="G33" s="1">
-        <v>-2.69E-2</v>
+        <v>-0.0269</v>
       </c>
       <c r="H33">
         <v>1.08</v>
       </c>
       <c r="I33" s="1">
-        <v>-3.5700000000000003E-2</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-0.0357</v>
+      </c>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3309,7 +3918,7 @@
         <v>6910</v>
       </c>
       <c r="C34" s="1">
-        <v>0.37919999999999998</v>
+        <v>0.3792</v>
       </c>
       <c r="D34">
         <v>2129</v>
@@ -3324,21 +3933,21 @@
         <v>2.57</v>
       </c>
       <c r="I34" s="1">
-        <v>1.3795999999999999</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="K34" s="12" t="s">
+        <v>1.3796</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0.588</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3366,20 +3975,25 @@
       <c r="I35" s="2">
         <v>0.88</v>
       </c>
-      <c r="J35" s="7">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="23">
+        <v>0.599</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B15:K16"/>
+    <mergeCell ref="L15:U16"/>
     <mergeCell ref="V15:AE16"/>
     <mergeCell ref="AF15:AO16"/>
     <mergeCell ref="C23:G24"/>
@@ -3387,117 +4001,113 @@
     <mergeCell ref="I3:O4"/>
     <mergeCell ref="P3:X4"/>
     <mergeCell ref="Y3:AG4"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B15:K16"/>
-    <mergeCell ref="L15:U16"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.1296296296296" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="10.6296296296296" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:35">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+    </row>
+    <row r="2" spans="2:35">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3" spans="2:35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -3516,10 +4126,10 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J3" t="s">
@@ -3540,13 +4150,13 @@
       <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="S3" t="s">
@@ -3567,13 +4177,13 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="4" t="s">
+      <c r="Z3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
@@ -3594,29 +4204,29 @@
       <c r="AG3" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3629,13 +4239,13 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="U5">
-        <v>142.19999999999999</v>
+        <v>142.2</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -3646,9 +4256,9 @@
       <c r="X5" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
       <c r="AB5" t="s">
         <v>12</v>
       </c>
@@ -3661,12 +4271,12 @@
       <c r="AG5" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="4"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI5" s="11"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>17</v>
       </c>
@@ -3677,18 +4287,18 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="L6">
         <v>271</v>
       </c>
       <c r="M6" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.564</v>
       </c>
       <c r="N6">
         <v>55.74</v>
@@ -3696,16 +4306,16 @@
       <c r="O6" s="1">
         <v>0.314</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="U6">
-        <v>260.60000000000002</v>
+        <v>260.6</v>
       </c>
       <c r="V6" s="1">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="W6">
         <v>13.6</v>
@@ -3713,9 +4323,9 @@
       <c r="X6" s="1">
         <v>1.298</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
       <c r="AB6">
         <v>0.36</v>
       </c>
@@ -3726,22 +4336,22 @@
         <v>316.3</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.80700000000000005</v>
+        <v>0.807</v>
       </c>
       <c r="AF6">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="AG6" s="1">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="s">
+        <v>1.963</v>
+      </c>
+      <c r="AH6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="7">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI6" s="23">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>18</v>
       </c>
@@ -3749,7 +4359,7 @@
         <v>0.32</v>
       </c>
       <c r="D7">
-        <v>321.89999999999998</v>
+        <v>321.9</v>
       </c>
       <c r="E7" s="2">
         <v>0.65</v>
@@ -3760,71 +4370,71 @@
       <c r="G7" s="1">
         <v>1.175</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="23">
         <v>0.622</v>
       </c>
       <c r="L7">
         <v>456</v>
       </c>
       <c r="M7" s="1">
-        <v>0.68100000000000005</v>
+        <v>0.681</v>
       </c>
       <c r="N7">
         <v>59.5</v>
       </c>
       <c r="O7" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="P7" s="4" t="s">
+        <v>0.067</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="23">
         <v>1.006</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="S7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="U7">
         <v>433.27</v>
       </c>
       <c r="V7" s="1">
-        <v>0.66300000000000003</v>
+        <v>0.663</v>
       </c>
       <c r="W7">
-        <v>40.659999999999997</v>
+        <v>40.66</v>
       </c>
       <c r="X7" s="1">
         <v>1.984</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="15">
         <v>0.85</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:4">
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +4460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3858,7 +4468,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3866,7 +4476,7 @@
         <v>619.9</v>
       </c>
       <c r="C18" s="1">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D18">
         <v>102.9</v>
@@ -3878,21 +4488,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1043.0999999999999</v>
+        <v>1043.1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.68300000000000005</v>
+        <v>0.683</v>
       </c>
       <c r="D19">
         <v>170.7</v>
       </c>
       <c r="E19" s="1">
-        <v>0.11600000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="F19">
         <v>1.3</v>
@@ -3901,7 +4511,7 @@
         <v>49</v>
       </c>
       <c r="I19" s="1">
-        <v>0.70299999999999996</v>
+        <v>0.703</v>
       </c>
     </row>
   </sheetData>
@@ -3911,104 +4521,105 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:35">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+    </row>
+    <row r="2" spans="2:35">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3" spans="2:35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4027,10 +4638,10 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J3" t="s">
@@ -4051,13 +4662,13 @@
       <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="S3" t="s">
@@ -4078,13 +4689,13 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="4" t="s">
+      <c r="Z3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
@@ -4105,19 +4716,19 @@
       <c r="AG3" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4125,7 +4736,7 @@
         <v>486.4</v>
       </c>
       <c r="W5" s="1">
-        <v>0.23200000000000001</v>
+        <v>0.232</v>
       </c>
       <c r="X5">
         <v>55.4</v>
@@ -4137,10 +4748,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4151,7 +4762,7 @@
         <v>467</v>
       </c>
       <c r="M6" s="1">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="N6">
         <v>4.3</v>
@@ -4169,7 +4780,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4195,12 +4806,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4227,211 +4838,214 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
     <col min="25" max="25" width="8" customWidth="1"/>
     <col min="27" max="27" width="7.5" customWidth="1"/>
     <col min="28" max="28" width="7.75" customWidth="1"/>
-    <col min="29" max="29" width="7.875" customWidth="1"/>
+    <col min="29" max="29" width="7.87962962962963" customWidth="1"/>
     <col min="36" max="36" width="9" style="1"/>
     <col min="39" max="39" width="9.5" customWidth="1"/>
     <col min="40" max="41" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="19" t="s">
+    <row r="1" spans="2:19">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="23"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="19"/>
+    </row>
+    <row r="6" spans="2:41">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -4444,11 +5058,11 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>54</v>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -4456,7 +5070,7 @@
       <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K6" t="s">
@@ -4471,8 +5085,8 @@
       <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>57</v>
+      <c r="O6" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
@@ -4483,7 +5097,7 @@
       <c r="R6" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="T6" t="s">
@@ -4498,13 +5112,13 @@
       <c r="W6" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>55</v>
+      <c r="X6" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AA6" t="s">
@@ -4516,7 +5130,7 @@
       <c r="AC6" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="AE6" t="s">
@@ -4531,72 +5145,72 @@
       <c r="AH6" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM6" s="15" t="s">
-        <v>59</v>
+      <c r="AL6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AO6" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AO6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7">
         <v>0.69</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>18400</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>7790</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>6432</v>
       </c>
       <c r="J7" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="K7">
         <v>0.623</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <v>19746</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="10">
         <v>7843</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="10">
         <v>5826</v>
       </c>
       <c r="S7" s="2">
         <v>0.61</v>
       </c>
       <c r="T7">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="V7" s="14">
+        <v>0.605</v>
+      </c>
+      <c r="V7" s="10">
         <v>19808</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="10">
         <v>7515</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="10">
         <v>5676</v>
       </c>
       <c r="AD7" s="2">
@@ -4605,20 +5219,20 @@
       <c r="AE7">
         <v>0.625</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="10">
         <v>20978</v>
       </c>
-      <c r="AK7" s="14">
+      <c r="AK7" s="10">
         <v>7394</v>
       </c>
-      <c r="AM7" s="14">
+      <c r="AM7" s="10">
         <v>5954</v>
       </c>
       <c r="AO7" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -4628,19 +5242,19 @@
       <c r="C8" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>22399</v>
       </c>
       <c r="E8" s="2">
         <v>0.22</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>9372</v>
       </c>
       <c r="G8" s="2">
         <v>0.2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>6930</v>
       </c>
       <c r="I8" s="2">
@@ -4650,24 +5264,24 @@
         <v>0.59</v>
       </c>
       <c r="K8">
-        <v>0.77800000000000002</v>
+        <v>0.778</v>
       </c>
       <c r="L8" s="2">
         <v>0.25</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <v>23429</v>
       </c>
       <c r="N8" s="2">
         <v>0.19</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="10">
         <v>10036</v>
       </c>
       <c r="P8" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q8" s="14">
+        <v>0.28</v>
+      </c>
+      <c r="Q8" s="10">
         <v>7396</v>
       </c>
       <c r="R8" s="2">
@@ -4677,18 +5291,18 @@
         <v>0.61</v>
       </c>
       <c r="T8">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="U8" s="2">
         <v>0.31</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="10">
         <v>26594</v>
       </c>
       <c r="W8" s="2">
         <v>0.34</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="10">
         <v>10331</v>
       </c>
       <c r="Y8" s="2">
@@ -4697,47 +5311,47 @@
       <c r="Z8">
         <v>11014</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="10">
         <v>7584</v>
       </c>
       <c r="AC8" s="2">
         <v>0.34</v>
       </c>
       <c r="AD8" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>0.75900000000000001</v>
+        <v>0.58</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0.759</v>
       </c>
       <c r="AF8" s="2">
         <v>0.21</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="10">
         <v>30441</v>
       </c>
       <c r="AH8" s="2">
         <v>0.45</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="10">
         <v>17780</v>
       </c>
-      <c r="AK8" s="20">
+      <c r="AK8" s="14">
         <v>10888</v>
       </c>
       <c r="AL8" s="2">
         <v>0.47</v>
       </c>
-      <c r="AM8" s="14">
+      <c r="AM8" s="10">
         <v>7198</v>
       </c>
       <c r="AN8" s="1">
         <v>0.21</v>
       </c>
       <c r="AO8" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -4747,26 +5361,26 @@
       <c r="C9" s="2">
         <v>0.32</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>31995</v>
       </c>
       <c r="E9" s="2">
         <v>0.43</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>13398</v>
       </c>
       <c r="G9" s="2">
         <v>0.43</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>9268</v>
       </c>
       <c r="I9" s="2">
         <v>0.34</v>
       </c>
       <c r="J9" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K9">
         <v>1.133</v>
@@ -4774,26 +5388,26 @@
       <c r="L9" s="2">
         <v>0.46</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <v>35691</v>
       </c>
       <c r="N9" s="2">
         <v>0.52</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="10">
         <v>14329</v>
       </c>
       <c r="P9" s="2">
         <v>0.43</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="10">
         <v>10880</v>
       </c>
       <c r="R9" s="2">
         <v>0.47</v>
       </c>
       <c r="S9" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="T9">
         <v>1.121</v>
@@ -4801,13 +5415,13 @@
       <c r="U9" s="2">
         <v>0.42</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="10">
         <v>40388</v>
       </c>
       <c r="W9" s="2">
         <v>0.52</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="10">
         <v>14460</v>
       </c>
       <c r="Y9" s="2">
@@ -4819,99 +5433,99 @@
       <c r="AA9" s="2">
         <v>0.68</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="10">
         <v>10776</v>
       </c>
       <c r="AC9" s="2">
         <v>0.42</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AE9">
-        <v>1.1080000000000001</v>
+        <v>1.108</v>
       </c>
       <c r="AF9" s="2">
         <v>0.46</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="10">
         <v>43864</v>
       </c>
       <c r="AH9" s="2">
         <v>0.44</v>
       </c>
-      <c r="AI9" s="20">
+      <c r="AI9" s="14">
         <v>23626</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="20">
         <v>0.33</v>
       </c>
-      <c r="AK9" s="14">
+      <c r="AK9" s="10">
         <v>13930</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM9" s="20">
+        <v>0.28</v>
+      </c>
+      <c r="AM9" s="14">
         <v>10523</v>
       </c>
-      <c r="AN9" s="22">
+      <c r="AN9" s="20">
         <v>0.46</v>
       </c>
-      <c r="AO9" s="22">
+      <c r="AO9" s="20">
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="9">
         <v>1.494</v>
       </c>
       <c r="C10" s="2">
         <v>0.41</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>49552</v>
       </c>
       <c r="E10" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F10" s="14">
+        <v>0.55</v>
+      </c>
+      <c r="F10" s="10">
         <v>19272</v>
       </c>
       <c r="G10" s="2">
         <v>0.44</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>14548</v>
       </c>
       <c r="I10" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="J10" s="2">
         <v>0.51</v>
       </c>
-      <c r="K10" s="15">
-        <v>1.7210000000000001</v>
+      <c r="K10" s="9">
+        <v>1.721</v>
       </c>
       <c r="L10" s="2">
         <v>0.44</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="14">
         <v>56606</v>
       </c>
       <c r="N10" s="2">
         <v>0.59</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="14">
         <v>22560</v>
       </c>
       <c r="P10" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q10" s="20">
+        <v>0.57</v>
+      </c>
+      <c r="Q10" s="14">
         <v>18254</v>
       </c>
       <c r="R10" s="2">
@@ -4920,31 +5534,31 @@
       <c r="S10" s="2">
         <v>0.5</v>
       </c>
-      <c r="T10" s="15">
-        <v>1.8879999999999999</v>
+      <c r="T10" s="9">
+        <v>1.888</v>
       </c>
       <c r="U10" s="2">
         <v>0.68</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="14">
         <v>65210</v>
       </c>
       <c r="W10" s="2">
         <v>0.61</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="10">
         <v>22746</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Z10" s="14">
+        <v>0.57</v>
+      </c>
+      <c r="Z10" s="10">
         <v>33529</v>
       </c>
       <c r="AA10" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="14">
         <v>18047</v>
       </c>
       <c r="AC10" s="2">
@@ -4959,303 +5573,664 @@
       <c r="AF10" s="2">
         <v>0.96</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="10">
         <v>66392</v>
       </c>
       <c r="AH10" s="2">
         <v>0.51</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AI10" s="14">
         <v>31495</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="20">
         <v>0.33</v>
       </c>
-      <c r="AK10" s="14">
+      <c r="AK10" s="10">
         <v>21853</v>
       </c>
       <c r="AL10" s="2">
         <v>0.85</v>
       </c>
-      <c r="AM10" s="20">
+      <c r="AM10" s="14">
         <v>21622</v>
       </c>
-      <c r="AN10" s="22">
+      <c r="AN10" s="20">
         <v>1.05</v>
       </c>
       <c r="AO10" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="14" spans="2:45">
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+    </row>
+    <row r="15" spans="2:45">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+    </row>
+    <row r="16" spans="2:45">
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+    </row>
+    <row r="17" spans="2:41">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN17"/>
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D18">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.57</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.24</v>
+      </c>
+      <c r="L18">
+        <v>136</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="N18">
+        <v>148</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="V18">
+        <v>146</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="X18">
+        <v>182</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="AF18">
+        <v>128</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="AH18">
+        <v>169</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="26" spans="2:41">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AJ25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" s="14">
-        <v>60437</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26">
-        <v>27778</v>
-      </c>
-      <c r="F26" s="14">
-        <v>15563</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26">
-        <v>1.66</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
       <c r="AJ26"/>
       <c r="AN26"/>
       <c r="AO26"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:41">
       <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27" s="14">
-        <v>78932</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.30599999999999999</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B27" s="10">
+        <v>60437</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27">
-        <v>30873</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.1114</v>
-      </c>
-      <c r="F27" s="14">
-        <v>23888</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.53490000000000004</v>
-      </c>
+        <v>27778</v>
+      </c>
+      <c r="F27" s="10">
+        <v>15563</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+        <v>1.66</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:41">
       <c r="A28">
-        <v>15</v>
-      </c>
-      <c r="B28" s="14">
-        <v>102863</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="10">
+        <v>78932</v>
       </c>
       <c r="C28" s="1">
-        <v>0.30320000000000003</v>
+        <v>0.306</v>
       </c>
       <c r="D28">
-        <v>41631</v>
+        <v>30873</v>
       </c>
       <c r="E28" s="1">
-        <v>0.34849999999999998</v>
-      </c>
-      <c r="F28" s="14">
-        <v>29108</v>
+        <v>0.1114</v>
+      </c>
+      <c r="F28" s="10">
+        <v>23888</v>
       </c>
       <c r="G28" s="1">
-        <v>0.2185</v>
+        <v>0.5349</v>
       </c>
       <c r="H28">
-        <v>3.0550000000000002</v>
+        <v>2.545</v>
       </c>
       <c r="I28" s="1">
-        <v>0.20039999999999999</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+        <v>0.5331</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:41">
       <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29" s="14">
-        <v>151938</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="10">
+        <v>102863</v>
       </c>
       <c r="C29" s="1">
-        <v>0.47710000000000002</v>
+        <v>0.3032</v>
       </c>
       <c r="D29">
-        <v>67439</v>
+        <v>41631</v>
       </c>
       <c r="E29" s="1">
-        <v>0.61990000000000001</v>
-      </c>
-      <c r="F29" s="14">
-        <v>41447</v>
+        <v>0.3485</v>
+      </c>
+      <c r="F29" s="10">
+        <v>29108</v>
       </c>
       <c r="G29" s="1">
-        <v>0.4239</v>
+        <v>0.2185</v>
       </c>
       <c r="H29">
-        <v>4.3289999999999997</v>
+        <v>3.055</v>
       </c>
       <c r="I29" s="1">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
+        <v>0.2004</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:41">
       <c r="A30">
-        <v>17</v>
-      </c>
-      <c r="B30" s="14">
-        <v>237760</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.56479999999999997</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="10">
+        <v>151938</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.4771</v>
       </c>
       <c r="D30">
-        <v>120835</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.79179999999999995</v>
-      </c>
-      <c r="F30" s="14">
-        <v>72471</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.74850000000000005</v>
+        <v>67439</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.6199</v>
+      </c>
+      <c r="F30" s="10">
+        <v>41447</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.4239</v>
       </c>
       <c r="H30">
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.73229999999999995</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
+        <v>4.329</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.417</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.55</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
     </row>
+    <row r="31" spans="1:41">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10">
+        <v>237760</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.5648</v>
+      </c>
+      <c r="D31">
+        <v>120835</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.7918</v>
+      </c>
+      <c r="F31" s="10">
+        <v>72471</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.7485</v>
+      </c>
+      <c r="H31">
+        <v>7.499</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.7323</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="AJ31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="K26:P26"/>
+  <mergeCells count="20">
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="K27:P27"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="K29:P29"/>
-    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="K3:S4"/>
     <mergeCell ref="T3:AD4"/>
     <mergeCell ref="AE3:AO4"/>
+    <mergeCell ref="B14:K15"/>
+    <mergeCell ref="L14:U15"/>
+    <mergeCell ref="V14:AE15"/>
+    <mergeCell ref="AF14:AO15"/>
+    <mergeCell ref="D21:J22"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C8:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9">
       <c r="C8">
         <v>5010</v>
       </c>
@@ -5268,7 +6243,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9">
       <c r="C9">
         <v>6910</v>
       </c>
@@ -5279,7 +6254,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9">
       <c r="C21">
         <v>0.35</v>
       </c>
@@ -5292,7 +6267,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22">
         <v>0.99</v>
       </c>
@@ -5310,7 +6285,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="70">
   <si>
     <t>优秀公司指标
 营收的增长速度要超出运营支出的增长速度，代表这公司的产品好卖
@@ -729,9 +729,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1021,19 +1018,18 @@
       </rPr>
       <t>%大于净利润增速</t>
     </r>
+  </si>
+  <si>
+    <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已
+QQ的月活用户17年3月份的季报就显示已经见顶了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,345 +1076,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1426,255 +1098,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1696,9 +1126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1711,9 +1138,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1722,15 +1146,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1750,58 +1165,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1812,7 +1198,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1834,7 +1220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2139,552 +1525,551 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD17"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="8.37962962962963" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="16" width="11.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2700,7 +2085,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2716,85 +2101,85 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="6"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="16" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="16" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="16" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="2:33">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2813,7 +2198,7 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
@@ -2834,7 +2219,7 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="P5" t="s">
@@ -2849,7 +2234,7 @@
       <c r="S5" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="U5" t="s">
@@ -2861,7 +2246,7 @@
       <c r="W5" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="Y5" t="s">
@@ -2876,7 +2261,7 @@
       <c r="AB5" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AD5" t="s">
@@ -2888,11 +2273,11 @@
       <c r="AF5" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2911,7 +2296,7 @@
       <c r="F6">
         <v>137</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
       <c r="I6">
         <v>0.22</v>
       </c>
@@ -2927,7 +2312,7 @@
       <c r="M6">
         <v>128</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="10"/>
       <c r="P6">
         <v>0.31</v>
       </c>
@@ -2943,7 +2328,7 @@
       <c r="V6">
         <v>173</v>
       </c>
-      <c r="X6" s="11"/>
+      <c r="X6" s="10"/>
       <c r="Y6">
         <v>0.35</v>
       </c>
@@ -2959,9 +2344,9 @@
       <c r="AE6">
         <v>193</v>
       </c>
-      <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2975,34 +2360,34 @@
         <v>1151</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F7">
         <v>134</v>
       </c>
       <c r="G7" s="1">
-        <v>-0.0219</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7">
         <v>0.05</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.7727</v>
+        <v>-0.77270000000000005</v>
       </c>
       <c r="K7">
         <v>1153</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0453</v>
+        <v>4.53E-2</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" s="1">
-        <v>-0.7969</v>
-      </c>
-      <c r="O7" s="11"/>
+        <v>-0.79690000000000005</v>
+      </c>
+      <c r="O7" s="10"/>
       <c r="P7">
         <v>0.44</v>
       </c>
@@ -3013,15 +2398,15 @@
         <v>1305</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0653</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="V7">
         <v>247</v>
       </c>
       <c r="W7" s="1">
-        <v>0.4277</v>
-      </c>
-      <c r="X7" s="11"/>
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="X7" s="10"/>
       <c r="Y7">
         <v>0.35</v>
       </c>
@@ -3032,17 +2417,17 @@
         <v>1401</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.1199</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="AE7">
         <v>207</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.0725</v>
-      </c>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="1:33">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>17</v>
       </c>
@@ -3064,8 +2449,8 @@
       <c r="G8" s="1">
         <v>0.4627</v>
       </c>
-      <c r="H8" s="23">
-        <v>0.575</v>
+      <c r="H8" s="18">
+        <v>0.57499999999999996</v>
       </c>
       <c r="I8">
         <v>0.4</v>
@@ -3077,36 +2462,36 @@
         <v>1428</v>
       </c>
       <c r="L8" s="1">
-        <v>0.2385</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="M8">
         <v>261</v>
       </c>
       <c r="N8" s="1">
-        <v>8.7308</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0.579</v>
+        <v>8.7308000000000003</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.57899999999999996</v>
       </c>
       <c r="P8">
         <v>0.83</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.8864</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="R8">
         <v>2004</v>
       </c>
       <c r="S8" s="1">
-        <v>0.5356</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="V8">
         <v>542</v>
       </c>
       <c r="W8" s="1">
-        <v>1.1943</v>
-      </c>
-      <c r="X8" s="11"/>
+        <v>1.1942999999999999</v>
+      </c>
+      <c r="X8" s="10"/>
       <c r="Y8">
         <v>0.99</v>
       </c>
@@ -3117,7 +2502,7 @@
         <v>2173</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AC8">
         <v>570</v>
@@ -3126,13 +2511,13 @@
         <v>704</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.401</v>
-      </c>
-      <c r="AG8" s="23">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="AG8" s="18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>18</v>
       </c>
@@ -3154,8 +2539,8 @@
       <c r="G9" s="2">
         <v>1.26</v>
       </c>
-      <c r="H9" s="23">
-        <v>0.594</v>
+      <c r="H9" s="18">
+        <v>0.59399999999999997</v>
       </c>
       <c r="I9">
         <v>0.92</v>
@@ -3167,7 +2552,7 @@
         <v>2230</v>
       </c>
       <c r="L9" s="2">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M9">
         <v>583</v>
@@ -3175,8 +2560,8 @@
       <c r="N9" s="2">
         <v>1.23</v>
       </c>
-      <c r="O9" s="23">
-        <v>0.584</v>
+      <c r="O9" s="18">
+        <v>0.58399999999999996</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -3198,10 +2583,10 @@
         <v>838</v>
       </c>
       <c r="W9" s="2">
-        <v>0.55</v>
-      </c>
-      <c r="X9" s="23">
-        <v>0.595</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y9">
         <v>1.78</v>
@@ -3219,7 +2604,7 @@
         <v>728</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE9">
         <v>1118</v>
@@ -3227,16 +2612,16 @@
       <c r="AF9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AG9" s="23">
-        <v>0.619</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
+      <c r="AG9" s="18">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="4:32">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -3244,112 +2629,112 @@
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:45">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6" t="s">
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="2:45">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
     </row>
-    <row r="17" spans="2:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -3362,10 +2747,10 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
@@ -3392,10 +2777,10 @@
       <c r="O17" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R17" t="s">
@@ -3422,10 +2807,10 @@
       <c r="Y17" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AB17" t="s">
@@ -3452,10 +2837,10 @@
       <c r="AI17" t="s">
         <v>6</v>
       </c>
-      <c r="AJ17" s="11" t="s">
+      <c r="AJ17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AK17" s="11" t="s">
+      <c r="AK17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AL17" t="s">
@@ -3471,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3481,28 +2866,28 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="V18">
         <v>761</v>
       </c>
       <c r="X18">
         <v>190</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="10">
         <v>82</v>
       </c>
-      <c r="AA18" s="11"/>
+      <c r="AA18" s="10"/>
       <c r="AB18">
         <v>79</v>
       </c>
@@ -3515,10 +2900,10 @@
       <c r="AH18">
         <v>203</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AJ18" s="10">
         <v>97</v>
       </c>
-      <c r="AK18" s="11"/>
+      <c r="AK18" s="10"/>
       <c r="AL18">
         <v>93</v>
       </c>
@@ -3526,7 +2911,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3536,10 +2921,10 @@
       <c r="D19">
         <v>189</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>143</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
       <c r="H19">
         <v>113</v>
       </c>
@@ -3552,10 +2937,10 @@
       <c r="N19">
         <v>214</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="10">
         <v>151</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="10"/>
       <c r="R19">
         <v>119</v>
       </c>
@@ -3566,25 +2951,25 @@
         <v>1244</v>
       </c>
       <c r="W19" s="1">
-        <v>0.6347</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="X19">
         <v>207</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0895</v>
-      </c>
-      <c r="Z19" s="11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="Z19" s="10">
         <v>240</v>
       </c>
-      <c r="AA19" s="23">
-        <v>1.9268</v>
+      <c r="AA19" s="18">
+        <v>1.9268000000000001</v>
       </c>
       <c r="AB19">
         <v>127</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.6076</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="AD19">
         <v>186</v>
@@ -3596,7 +2981,7 @@
         <v>1348</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.6642</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AH19">
         <v>225</v>
@@ -3604,17 +2989,17 @@
       <c r="AI19" s="1">
         <v>0.1084</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ19" s="10">
         <v>296</v>
       </c>
-      <c r="AK19" s="23">
-        <v>2.0515</v>
+      <c r="AK19" s="18">
+        <v>2.0514999999999999</v>
       </c>
       <c r="AL19">
         <v>128</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.3763</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="AN19">
         <v>176</v>
@@ -3623,7 +3008,7 @@
         <v>-0.1111</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3631,19 +3016,19 @@
         <v>1027</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4949</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="D20">
         <v>205</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0847</v>
-      </c>
-      <c r="F20" s="11">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F20" s="10">
         <v>409</v>
       </c>
-      <c r="G20" s="23">
-        <v>1.8601</v>
+      <c r="G20" s="18">
+        <v>1.8601000000000001</v>
       </c>
       <c r="H20">
         <v>140</v>
@@ -3655,25 +3040,25 @@
         <v>156</v>
       </c>
       <c r="K20" s="1">
-        <v>-0.0983</v>
+        <v>-9.8299999999999998E-2</v>
       </c>
       <c r="L20">
         <v>1186</v>
       </c>
       <c r="M20" s="1">
-        <v>0.5186</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="N20">
         <v>235</v>
       </c>
       <c r="O20" s="1">
-        <v>0.0981</v>
-      </c>
-      <c r="P20" s="11">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="P20" s="10">
         <v>416</v>
       </c>
-      <c r="Q20" s="23">
-        <v>1.755</v>
+      <c r="Q20" s="18">
+        <v>1.7549999999999999</v>
       </c>
       <c r="R20">
         <v>142</v>
@@ -3685,7 +3070,7 @@
         <v>251</v>
       </c>
       <c r="U20" s="1">
-        <v>0.5399</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="V20">
         <v>1561</v>
@@ -3699,11 +3084,11 @@
       <c r="Y20" s="2">
         <v>0.15</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="10">
         <v>501</v>
       </c>
-      <c r="AA20" s="15">
-        <v>1.09</v>
+      <c r="AA20" s="13">
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB20">
         <v>144</v>
@@ -3721,7 +3106,7 @@
         <v>1739</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH20">
         <v>254</v>
@@ -3729,10 +3114,10 @@
       <c r="AI20" s="2">
         <v>0.13</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AJ20" s="10">
         <v>606</v>
       </c>
-      <c r="AK20" s="15">
+      <c r="AK20" s="13">
         <v>1.05</v>
       </c>
       <c r="AL20">
@@ -3748,30 +3133,30 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="C23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
@@ -3789,11 +3174,11 @@
       <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>12</v>
       </c>
@@ -3812,9 +3197,9 @@
       <c r="H29">
         <v>0.94</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>13</v>
       </c>
@@ -3822,23 +3207,23 @@
         <v>4280</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0705</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="F30">
         <v>563</v>
       </c>
       <c r="G30" s="1">
-        <v>-0.031</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="H30">
         <v>0.9</v>
       </c>
       <c r="I30" s="1">
-        <v>-0.0426</v>
-      </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-4.2599999999999999E-2</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3846,7 +3231,7 @@
         <v>4130</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.035</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F31">
         <v>440</v>
@@ -3858,11 +3243,11 @@
         <v>0.74</v>
       </c>
       <c r="I31" s="1">
-        <v>-0.1778</v>
-      </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3870,23 +3255,23 @@
         <v>4682</v>
       </c>
       <c r="C32" s="1">
-        <v>0.1337</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="F32">
         <v>631</v>
       </c>
       <c r="G32" s="1">
-        <v>0.4341</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H32">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>0.5135</v>
-      </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3894,23 +3279,23 @@
         <v>5010</v>
       </c>
       <c r="C33" s="1">
-        <v>0.0701</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="F33">
         <v>614</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.0269</v>
+        <v>-2.69E-2</v>
       </c>
       <c r="H33">
         <v>1.08</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.0357</v>
-      </c>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:16">
+        <v>-3.5700000000000003E-2</v>
+      </c>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3918,7 +3303,7 @@
         <v>6910</v>
       </c>
       <c r="C34" s="1">
-        <v>0.3792</v>
+        <v>0.37919999999999998</v>
       </c>
       <c r="D34">
         <v>2129</v>
@@ -3933,21 +3318,21 @@
         <v>2.57</v>
       </c>
       <c r="I34" s="1">
-        <v>1.3796</v>
-      </c>
-      <c r="J34" s="23">
-        <v>0.588</v>
-      </c>
-      <c r="K34" s="16" t="s">
+        <v>1.3795999999999999</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3975,25 +3360,20 @@
       <c r="I35" s="2">
         <v>0.88</v>
       </c>
-      <c r="J35" s="23">
-        <v>0.599</v>
-      </c>
-      <c r="K35" s="16" t="s">
+      <c r="J35" s="18">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="K35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B15:K16"/>
-    <mergeCell ref="L15:U16"/>
     <mergeCell ref="V15:AE16"/>
     <mergeCell ref="AF15:AO16"/>
     <mergeCell ref="C23:G24"/>
@@ -4001,113 +3381,117 @@
     <mergeCell ref="I3:O4"/>
     <mergeCell ref="P3:X4"/>
     <mergeCell ref="Y3:AG4"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B15:K16"/>
+    <mergeCell ref="L15:U16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="12.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="10.6296296296296" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-    </row>
-    <row r="2" spans="2:35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="2:35">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4126,10 +3510,10 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J3" t="s">
@@ -4150,13 +3534,13 @@
       <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S3" t="s">
@@ -4177,13 +3561,13 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
@@ -4204,29 +3588,29 @@
       <c r="AG3" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AI3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>16</v>
       </c>
@@ -4239,13 +3623,13 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
       <c r="U5">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -4256,9 +3640,9 @@
       <c r="X5" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" t="s">
         <v>12</v>
       </c>
@@ -4271,12 +3655,12 @@
       <c r="AG5" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="11"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AI5" s="10"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>17</v>
       </c>
@@ -4287,18 +3671,18 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="L6">
         <v>271</v>
       </c>
       <c r="M6" s="1">
-        <v>0.564</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="N6">
         <v>55.74</v>
@@ -4306,16 +3690,16 @@
       <c r="O6" s="1">
         <v>0.314</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
       <c r="U6">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="V6" s="1">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="W6">
         <v>13.6</v>
@@ -4323,9 +3707,9 @@
       <c r="X6" s="1">
         <v>1.298</v>
       </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
       <c r="AB6">
         <v>0.36</v>
       </c>
@@ -4336,22 +3720,22 @@
         <v>316.3</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.807</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="AF6">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1.963</v>
-      </c>
-      <c r="AH6" s="11" t="s">
+        <v>1.9630000000000001</v>
+      </c>
+      <c r="AH6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="23">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AI6" s="18">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>18</v>
       </c>
@@ -4359,7 +3743,7 @@
         <v>0.32</v>
       </c>
       <c r="D7">
-        <v>321.9</v>
+        <v>321.89999999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0.65</v>
@@ -4370,71 +3754,71 @@
       <c r="G7" s="1">
         <v>1.175</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="18">
         <v>0.622</v>
       </c>
       <c r="L7">
         <v>456</v>
       </c>
       <c r="M7" s="1">
-        <v>0.681</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="N7">
         <v>59.5</v>
       </c>
       <c r="O7" s="1">
-        <v>0.067</v>
-      </c>
-      <c r="P7" s="11" t="s">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="18">
         <v>1.006</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="S7">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U7">
         <v>433.27</v>
       </c>
       <c r="V7" s="1">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="W7">
-        <v>40.66</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="X7" s="1">
         <v>1.984</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="13">
         <v>0.85</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="22"/>
-    </row>
-    <row r="16" spans="2:9">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +3844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4468,7 +3852,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4476,7 +3860,7 @@
         <v>619.9</v>
       </c>
       <c r="C18" s="1">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D18">
         <v>102.9</v>
@@ -4488,21 +3872,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1043.1</v>
+        <v>1043.0999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.683</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="D19">
         <v>170.7</v>
       </c>
       <c r="E19" s="1">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F19">
         <v>1.3</v>
@@ -4511,7 +3895,7 @@
         <v>49</v>
       </c>
       <c r="I19" s="1">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4521,105 +3905,104 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-    </row>
-    <row r="2" spans="2:35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="2:35">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4638,10 +4021,10 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J3" t="s">
@@ -4662,13 +4045,13 @@
       <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S3" t="s">
@@ -4689,13 +4072,13 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
@@ -4716,19 +4099,19 @@
       <c r="AG3" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="AI3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4736,7 +4119,7 @@
         <v>486.4</v>
       </c>
       <c r="W5" s="1">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="X5">
         <v>55.4</v>
@@ -4748,10 +4131,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4762,7 +4145,7 @@
         <v>467</v>
       </c>
       <c r="M6" s="1">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="N6">
         <v>4.3</v>
@@ -4780,7 +4163,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4806,12 +4189,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4838,36 +4221,35 @@
     <mergeCell ref="S1:AA2"/>
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="25" max="25" width="8" customWidth="1"/>
     <col min="27" max="27" width="7.5" customWidth="1"/>
     <col min="28" max="28" width="7.75" customWidth="1"/>
-    <col min="29" max="29" width="7.87962962962963" customWidth="1"/>
+    <col min="29" max="29" width="7.875" customWidth="1"/>
     <col min="36" max="36" width="9" style="1"/>
     <col min="39" max="39" width="9.5" customWidth="1"/>
     <col min="40" max="41" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4887,7 +4269,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4907,101 +4289,101 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="17" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="7" t="s">
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5032,20 +4414,20 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="19"/>
-    </row>
-    <row r="6" spans="2:41">
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -5058,10 +4440,10 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
@@ -5070,7 +4452,7 @@
       <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K6" t="s">
@@ -5085,7 +4467,7 @@
       <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P6" t="s">
@@ -5097,7 +4479,7 @@
       <c r="R6" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="T6" t="s">
@@ -5112,13 +4494,13 @@
       <c r="W6" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AA6" t="s">
@@ -5130,7 +4512,7 @@
       <c r="AC6" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AE6" t="s">
@@ -5145,72 +4527,72 @@
       <c r="AH6" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AK6" s="8" t="s">
+      <c r="AK6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AL6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AO6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7">
         <v>0.69</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>18400</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>7790</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>6432</v>
       </c>
       <c r="J7" s="2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K7">
         <v>0.623</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>19746</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>7843</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>5826</v>
       </c>
       <c r="S7" s="2">
         <v>0.61</v>
       </c>
       <c r="T7">
-        <v>0.605</v>
-      </c>
-      <c r="V7" s="10">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="V7" s="9">
         <v>19808</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="9">
         <v>7515</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>5676</v>
       </c>
       <c r="AD7" s="2">
@@ -5219,20 +4601,20 @@
       <c r="AE7">
         <v>0.625</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="9">
         <v>20978</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="9">
         <v>7394</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AM7" s="9">
         <v>5954</v>
       </c>
       <c r="AO7" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -5242,19 +4624,19 @@
       <c r="C8" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>22399</v>
       </c>
       <c r="E8" s="2">
         <v>0.22</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>9372</v>
       </c>
       <c r="G8" s="2">
         <v>0.2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>6930</v>
       </c>
       <c r="I8" s="2">
@@ -5264,24 +4646,24 @@
         <v>0.59</v>
       </c>
       <c r="K8">
-        <v>0.778</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="L8" s="2">
         <v>0.25</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>23429</v>
       </c>
       <c r="N8" s="2">
         <v>0.19</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>10036</v>
       </c>
       <c r="P8" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q8" s="9">
         <v>7396</v>
       </c>
       <c r="R8" s="2">
@@ -5291,18 +4673,18 @@
         <v>0.61</v>
       </c>
       <c r="T8">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="U8" s="2">
         <v>0.31</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>26594</v>
       </c>
       <c r="W8" s="2">
         <v>0.34</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="9">
         <v>10331</v>
       </c>
       <c r="Y8" s="2">
@@ -5311,47 +4693,47 @@
       <c r="Z8">
         <v>11014</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="9">
         <v>7584</v>
       </c>
       <c r="AC8" s="2">
         <v>0.34</v>
       </c>
       <c r="AD8" s="2">
-        <v>0.58</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>0.759</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0.75900000000000001</v>
       </c>
       <c r="AF8" s="2">
         <v>0.21</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="9">
         <v>30441</v>
       </c>
       <c r="AH8" s="2">
         <v>0.45</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AI8" s="9">
         <v>17780</v>
       </c>
-      <c r="AK8" s="14">
+      <c r="AK8" s="12">
         <v>10888</v>
       </c>
       <c r="AL8" s="2">
         <v>0.47</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AM8" s="9">
         <v>7198</v>
       </c>
       <c r="AN8" s="1">
         <v>0.21</v>
       </c>
       <c r="AO8" s="1">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -5361,26 +4743,26 @@
       <c r="C9" s="2">
         <v>0.32</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>31995</v>
       </c>
       <c r="E9" s="2">
         <v>0.43</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>13398</v>
       </c>
       <c r="G9" s="2">
         <v>0.43</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>9268</v>
       </c>
       <c r="I9" s="2">
         <v>0.34</v>
       </c>
       <c r="J9" s="2">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K9">
         <v>1.133</v>
@@ -5388,26 +4770,26 @@
       <c r="L9" s="2">
         <v>0.46</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>35691</v>
       </c>
       <c r="N9" s="2">
         <v>0.52</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>14329</v>
       </c>
       <c r="P9" s="2">
         <v>0.43</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>10880</v>
       </c>
       <c r="R9" s="2">
         <v>0.47</v>
       </c>
       <c r="S9" s="2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T9">
         <v>1.121</v>
@@ -5415,13 +4797,13 @@
       <c r="U9" s="2">
         <v>0.42</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>40388</v>
       </c>
       <c r="W9" s="2">
         <v>0.52</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="9">
         <v>14460</v>
       </c>
       <c r="Y9" s="2">
@@ -5433,99 +4815,99 @@
       <c r="AA9" s="2">
         <v>0.68</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>10776</v>
       </c>
       <c r="AC9" s="2">
         <v>0.42</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE9">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="AF9" s="2">
         <v>0.46</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <v>43864</v>
       </c>
       <c r="AH9" s="2">
         <v>0.44</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="12">
         <v>23626</v>
       </c>
-      <c r="AJ9" s="20">
+      <c r="AJ9" s="15">
         <v>0.33</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="9">
         <v>13930</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="AM9" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM9" s="12">
         <v>10523</v>
       </c>
-      <c r="AN9" s="20">
+      <c r="AN9" s="15">
         <v>0.46</v>
       </c>
-      <c r="AO9" s="20">
+      <c r="AO9" s="15">
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1.494</v>
       </c>
       <c r="C10" s="2">
         <v>0.41</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>49552</v>
       </c>
       <c r="E10" s="2">
-        <v>0.55</v>
-      </c>
-      <c r="F10" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10" s="9">
         <v>19272</v>
       </c>
       <c r="G10" s="2">
         <v>0.44</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>14548</v>
       </c>
       <c r="I10" s="2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J10" s="2">
         <v>0.51</v>
       </c>
-      <c r="K10" s="9">
-        <v>1.721</v>
+      <c r="K10" s="8">
+        <v>1.7210000000000001</v>
       </c>
       <c r="L10" s="2">
         <v>0.44</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>56606</v>
       </c>
       <c r="N10" s="2">
         <v>0.59</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>22560</v>
       </c>
       <c r="P10" s="2">
-        <v>0.57</v>
-      </c>
-      <c r="Q10" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q10" s="12">
         <v>18254</v>
       </c>
       <c r="R10" s="2">
@@ -5534,31 +4916,31 @@
       <c r="S10" s="2">
         <v>0.5</v>
       </c>
-      <c r="T10" s="9">
-        <v>1.888</v>
+      <c r="T10" s="8">
+        <v>1.8879999999999999</v>
       </c>
       <c r="U10" s="2">
         <v>0.68</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="12">
         <v>65210</v>
       </c>
       <c r="W10" s="2">
         <v>0.61</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="9">
         <v>22746</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.57</v>
-      </c>
-      <c r="Z10" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z10" s="9">
         <v>33529</v>
       </c>
       <c r="AA10" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="12">
         <v>18047</v>
       </c>
       <c r="AC10" s="2">
@@ -5573,177 +4955,177 @@
       <c r="AF10" s="2">
         <v>0.96</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <v>66392</v>
       </c>
       <c r="AH10" s="2">
         <v>0.51</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AI10" s="12">
         <v>31495</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AJ10" s="15">
         <v>0.33</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="9">
         <v>21853</v>
       </c>
       <c r="AL10" s="2">
         <v>0.85</v>
       </c>
-      <c r="AM10" s="14">
+      <c r="AM10" s="12">
         <v>21622</v>
       </c>
-      <c r="AN10" s="20">
+      <c r="AN10" s="15">
         <v>1.05</v>
       </c>
       <c r="AO10" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="2:45">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6" t="s">
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
-    <row r="15" spans="2:45">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="2:45">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="6" t="s">
+      <c r="AF16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -5755,7 +5137,7 @@
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
     </row>
-    <row r="17" spans="2:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -5768,10 +5150,10 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
@@ -5780,8 +5162,6 @@
       <c r="I17" t="s">
         <v>6</v>
       </c>
-      <c r="J17"/>
-      <c r="K17"/>
       <c r="L17" t="s">
         <v>60</v>
       </c>
@@ -5794,10 +5174,10 @@
       <c r="O17" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R17" t="s">
@@ -5806,8 +5186,6 @@
       <c r="S17" t="s">
         <v>6</v>
       </c>
-      <c r="T17"/>
-      <c r="U17"/>
       <c r="V17" t="s">
         <v>60</v>
       </c>
@@ -5820,10 +5198,10 @@
       <c r="Y17" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AB17" t="s">
@@ -5832,8 +5210,6 @@
       <c r="AC17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17"/>
-      <c r="AE17"/>
       <c r="AF17" t="s">
         <v>60</v>
       </c>
@@ -5846,10 +5222,10 @@
       <c r="AI17" t="s">
         <v>6</v>
       </c>
-      <c r="AJ17" s="11" t="s">
+      <c r="AJ17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AK17" s="11" t="s">
+      <c r="AK17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AL17" t="s">
@@ -5861,7 +5237,7 @@
       <c r="AN17"/>
       <c r="AO17"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5875,16 +5251,16 @@
         <v>129</v>
       </c>
       <c r="E18" s="2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I18" s="2">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="L18">
         <v>136</v>
       </c>
       <c r="M18" s="2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N18">
         <v>148</v>
@@ -5932,34 +5308,34 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="26" spans="2:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="D21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
@@ -5977,25 +5353,25 @@
       <c r="I26" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AJ26"/>
       <c r="AN26"/>
       <c r="AO26"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>60437</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27">
         <v>27778</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>15563</v>
       </c>
       <c r="G27" s="1"/>
@@ -6003,30 +5379,30 @@
         <v>1.66</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>0.54</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="K27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>78932</v>
       </c>
       <c r="C28" s="1">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D28">
         <v>30873</v>
@@ -6034,203 +5410,202 @@
       <c r="E28" s="1">
         <v>0.1114</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>23888</v>
       </c>
       <c r="G28" s="1">
-        <v>0.5349</v>
+        <v>0.53490000000000004</v>
       </c>
       <c r="H28">
-        <v>2.545</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>0.5331</v>
-      </c>
-      <c r="J28" s="15">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="J28" s="13">
         <v>0.6</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="K28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>102863</v>
       </c>
       <c r="C29" s="1">
-        <v>0.3032</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="D29">
         <v>41631</v>
       </c>
       <c r="E29" s="1">
-        <v>0.3485</v>
-      </c>
-      <c r="F29" s="10">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F29" s="9">
         <v>29108</v>
       </c>
       <c r="G29" s="1">
         <v>0.2185</v>
       </c>
       <c r="H29">
-        <v>3.055</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="I29" s="1">
-        <v>0.2004</v>
-      </c>
-      <c r="J29" s="15">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="J29" s="13">
         <v>0.59</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="K29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>16</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>151938</v>
       </c>
       <c r="C30" s="1">
-        <v>0.4771</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="D30">
         <v>67439</v>
       </c>
       <c r="E30" s="1">
-        <v>0.6199</v>
-      </c>
-      <c r="F30" s="10">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="F30" s="9">
         <v>41447</v>
       </c>
       <c r="G30" s="1">
         <v>0.4239</v>
       </c>
       <c r="H30">
-        <v>4.329</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="I30" s="1">
-        <v>0.417</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0.55</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>17</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>237760</v>
       </c>
       <c r="C31" s="2">
-        <v>0.5648</v>
+        <v>0.56479999999999997</v>
       </c>
       <c r="D31">
         <v>120835</v>
       </c>
       <c r="E31" s="2">
-        <v>0.7918</v>
-      </c>
-      <c r="F31" s="10">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="F31" s="9">
         <v>72471</v>
       </c>
       <c r="G31" s="2">
-        <v>0.7485</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="H31">
-        <v>7.499</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="I31" s="2">
-        <v>0.7323</v>
-      </c>
-      <c r="J31" s="15">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="J31" s="13">
         <v>0.49</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="K31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
       <c r="AJ31"/>
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D21:J22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AD4"/>
+    <mergeCell ref="AE3:AO4"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="V16:Y16"/>
     <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="T3:AD4"/>
-    <mergeCell ref="AE3:AO4"/>
     <mergeCell ref="B14:K15"/>
     <mergeCell ref="L14:U15"/>
     <mergeCell ref="V14:AE15"/>
     <mergeCell ref="AF14:AO15"/>
-    <mergeCell ref="D21:J22"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C8">
         <v>5010</v>
       </c>
@@ -6243,7 +5618,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C9">
         <v>6910</v>
       </c>
@@ -6254,7 +5629,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C21">
         <v>0.35</v>
       </c>
@@ -6267,7 +5642,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0.99</v>
       </c>
@@ -6285,7 +5660,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="70">
   <si>
     <t>优秀公司指标
 营收的增长速度要超出运营支出的增长速度，代表这公司的产品好卖
@@ -371,15 +371,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>NVIDIA对2019财年第一季度的展望如下：</t>
-  </si>
-  <si>
-    <t>预计收入将达到29亿美元，上下浮动两个百分点。</t>
-  </si>
-  <si>
-    <t>预计美国通用会计准则和非美国通用会计准则毛利率分别为62.7％和63.0％，上下浮动50个基点。</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -1022,6 +1013,23 @@
   <si>
     <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已
 QQ的月活用户17年3月份的季报就显示已经见顶了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营支出</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我们机会的核心是人工智能计算需求的惊人增长，就像传统计算已经放缓一样。
+我们开创的GPU计算方法非常适合填补这一真空。而我们对Tensor Core GPU
+的发明进一步加强了我们强化AI时代的强大地位，“他说。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA对2019财年第二季度的展望如下：
+预计收入将达到31亿美元，上下两个百分点。
+预计GAAP和非GAAP毛利率分别为63.3％和63.5％，上下浮动50个基点。
+预计GAAP和非GAAP运营支出分别约为8.1亿美元和6.85亿美元。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1089,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1104,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,14 +1194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,8 +1209,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2056,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2113,7 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2085,7 +2129,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2101,85 +2145,93 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="20" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="20" t="s">
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2192,92 +2244,104 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" t="s">
         <v>10</v>
       </c>
-      <c r="S5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="U5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="s">
         <v>8</v>
       </c>
-      <c r="W5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="10" t="s">
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2293,60 +2357,60 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>137</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6">
+      <c r="J6" s="10"/>
+      <c r="K6">
         <v>0.22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>1103</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6">
+        <v>1103</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6">
         <v>128</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6">
+      <c r="S6" s="10"/>
+      <c r="T6">
         <v>0.31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>1225</v>
       </c>
-      <c r="S6" t="s">
+      <c r="W6" t="s">
         <v>12</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>173</v>
       </c>
-      <c r="X6" s="10"/>
-      <c r="Y6">
+      <c r="AB6" s="10"/>
+      <c r="AC6">
         <v>0.35</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AD6" t="s">
         <v>12</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>1251</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>12</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>193</v>
       </c>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AK6" s="10"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2362,72 +2426,76 @@
       <c r="E7" s="1">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7">
         <v>134</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>-2.1899999999999999E-2</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7">
+      <c r="J7" s="10"/>
+      <c r="K7">
         <v>0.05</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>-0.77270000000000005</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1153</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>4.53E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7">
         <v>26</v>
       </c>
-      <c r="N7" s="1">
+      <c r="R7" s="1">
         <v>-0.79690000000000005</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7">
+      <c r="S7" s="10"/>
+      <c r="T7">
         <v>0.44</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="U7" s="1">
         <v>0.4194</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>1305</v>
       </c>
-      <c r="S7" s="1">
+      <c r="W7" s="1">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>247</v>
       </c>
-      <c r="W7" s="1">
+      <c r="AA7" s="1">
         <v>0.42770000000000002</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7">
+      <c r="AB7" s="10"/>
+      <c r="AC7">
         <v>0.35</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AD7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7">
+      <c r="AE7">
         <v>1401</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AF7" s="1">
         <v>0.11990000000000001</v>
       </c>
-      <c r="AE7">
+      <c r="AI7">
         <v>207</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AJ7" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG7" s="10"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>17</v>
       </c>
@@ -2443,81 +2511,85 @@
       <c r="E8" s="1">
         <v>0.1338</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8">
         <v>245</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>0.4627</v>
       </c>
-      <c r="H8" s="18">
+      <c r="J8" s="18">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.4</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1428</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="M8">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8">
         <v>261</v>
       </c>
-      <c r="N8" s="1">
+      <c r="R8" s="1">
         <v>8.7308000000000003</v>
       </c>
-      <c r="O8" s="18">
+      <c r="S8" s="18">
         <v>0.57899999999999996</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>0.83</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="U8" s="1">
         <v>0.88639999999999997</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>2004</v>
       </c>
-      <c r="S8" s="1">
+      <c r="W8" s="1">
         <v>0.53559999999999997</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>542</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AA8" s="1">
         <v>1.1942999999999999</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Y8">
+      <c r="AB8" s="10"/>
+      <c r="AC8">
         <v>0.99</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AD8" s="1">
         <v>1.8286</v>
       </c>
-      <c r="AA8">
+      <c r="AE8">
         <v>2173</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AF8" s="1">
         <v>0.55100000000000005</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>570</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>704</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AJ8" s="1">
         <v>2.4009999999999998</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AK8" s="18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2534,862 +2606,992 @@
         <v>0.48</v>
       </c>
       <c r="F9">
+        <v>596</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9">
         <v>554</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>1.26</v>
       </c>
-      <c r="H9" s="18">
+      <c r="J9" s="18">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.92</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>1.24</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2230</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M9">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9">
         <v>583</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <v>1.23</v>
       </c>
-      <c r="O9" s="18">
+      <c r="S9" s="18">
         <v>0.58399999999999996</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>1.33</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="U9" s="2">
         <v>0.6</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>2636</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W9" s="2">
         <v>0.32</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>674</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9">
+      <c r="Y9" s="2"/>
+      <c r="Z9">
         <v>838</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X9" s="18">
+      <c r="AB9" s="18">
         <v>0.59499999999999997</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <v>1.78</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AD9" s="2">
         <v>0.8</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <v>2911</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AF9" s="2">
         <v>0.34</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>728</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AH9" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>1118</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AJ9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AK9" s="18">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1.98</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="D10">
+        <v>3207</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>773</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>1244</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="E12" s="26"/>
+      <c r="F12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="AB12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="AB13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21" t="s">
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21" t="s">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21" t="s">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="G19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="V19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="V20">
+        <v>761</v>
+      </c>
+      <c r="X20">
+        <v>190</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>82</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20">
+        <v>79</v>
+      </c>
+      <c r="AD20">
+        <v>163</v>
+      </c>
+      <c r="AF20">
+        <v>810</v>
+      </c>
+      <c r="AH20">
+        <v>203</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>97</v>
+      </c>
+      <c r="AK20" s="10"/>
+      <c r="AL20">
+        <v>93</v>
+      </c>
+      <c r="AN20">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>687</v>
+      </c>
+      <c r="D21">
+        <v>189</v>
+      </c>
+      <c r="F21" s="10">
+        <v>143</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21">
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <v>173</v>
+      </c>
+      <c r="L21">
+        <v>781</v>
+      </c>
+      <c r="N21">
+        <v>214</v>
+      </c>
+      <c r="P21" s="10">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21">
+        <v>119</v>
+      </c>
+      <c r="T21">
+        <v>163</v>
+      </c>
+      <c r="V21">
+        <v>1244</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="X21">
+        <v>207</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="AB21">
+        <v>127</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="AD21">
+        <v>186</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.1411</v>
+      </c>
+      <c r="AF21">
+        <v>1348</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="AH21">
+        <v>225</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.1084</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>296</v>
+      </c>
+      <c r="AK21" s="18">
+        <v>2.0514999999999999</v>
+      </c>
+      <c r="AL21">
+        <v>128</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="AN21">
+        <v>176</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>-0.1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1027</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="D22">
+        <v>205</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>409</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1.8601000000000001</v>
+      </c>
+      <c r="H22">
+        <v>140</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.2389</v>
+      </c>
+      <c r="J22">
+        <v>156</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-9.8299999999999998E-2</v>
+      </c>
+      <c r="L22">
+        <v>1186</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="N22">
+        <v>235</v>
+      </c>
+      <c r="O22" s="1">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="P22" s="10">
+        <v>416</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="R22">
+        <v>142</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.1933</v>
+      </c>
+      <c r="T22">
+        <v>251</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="V22">
+        <v>1561</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X22">
+        <v>239</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>501</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>144</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="AD22">
+        <v>191</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AF22">
+        <v>1739</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH22">
+        <v>254</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>606</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="AL22">
+        <v>132</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AN22">
+        <v>180</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1720</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V17" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B31">
+        <v>3998</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F31">
+        <v>581</v>
+      </c>
+      <c r="G31" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="V18">
-        <v>761</v>
-      </c>
-      <c r="X18">
-        <v>190</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>82</v>
-      </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18">
-        <v>79</v>
-      </c>
-      <c r="AD18">
-        <v>163</v>
-      </c>
-      <c r="AF18">
-        <v>810</v>
-      </c>
-      <c r="AH18">
-        <v>203</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="10"/>
-      <c r="AL18">
-        <v>93</v>
-      </c>
-      <c r="AN18">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>687</v>
-      </c>
-      <c r="D19">
-        <v>189</v>
-      </c>
-      <c r="F19" s="10">
-        <v>143</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19">
-        <v>113</v>
-      </c>
-      <c r="J19">
-        <v>173</v>
-      </c>
-      <c r="L19">
-        <v>781</v>
-      </c>
-      <c r="N19">
-        <v>214</v>
-      </c>
-      <c r="P19" s="10">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19">
-        <v>119</v>
-      </c>
-      <c r="T19">
-        <v>163</v>
-      </c>
-      <c r="V19">
-        <v>1244</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0.63470000000000004</v>
-      </c>
-      <c r="X19">
-        <v>207</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>240</v>
-      </c>
-      <c r="AA19" s="18">
-        <v>1.9268000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>127</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="AD19">
-        <v>186</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>0.1411</v>
-      </c>
-      <c r="AF19">
-        <v>1348</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="AH19">
-        <v>225</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0.1084</v>
-      </c>
-      <c r="AJ19" s="10">
-        <v>296</v>
-      </c>
-      <c r="AK19" s="18">
-        <v>2.0514999999999999</v>
-      </c>
-      <c r="AL19">
-        <v>128</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="AN19">
-        <v>176</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>-0.1111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1027</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.49490000000000001</v>
-      </c>
-      <c r="D20">
-        <v>205</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="F20" s="10">
-        <v>409</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1.8601000000000001</v>
-      </c>
-      <c r="H20">
-        <v>140</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.2389</v>
-      </c>
-      <c r="J20">
-        <v>156</v>
-      </c>
-      <c r="K20" s="1">
-        <v>-9.8299999999999998E-2</v>
-      </c>
-      <c r="L20">
-        <v>1186</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.51859999999999995</v>
-      </c>
-      <c r="N20">
-        <v>235</v>
-      </c>
-      <c r="O20" s="1">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="P20" s="10">
-        <v>416</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="R20">
-        <v>142</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.1933</v>
-      </c>
-      <c r="T20">
-        <v>251</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.53990000000000005</v>
-      </c>
-      <c r="V20">
-        <v>1561</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="X20">
-        <v>239</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Z20" s="10">
-        <v>501</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AB20">
-        <v>144</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="AD20">
-        <v>191</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="AF20">
-        <v>1739</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AH20">
-        <v>254</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="AJ20" s="10">
-        <v>606</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>1.05</v>
-      </c>
-      <c r="AL20">
-        <v>132</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="AN20">
-        <v>180</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="C23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>3998</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
-        <v>581</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.94</v>
       </c>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>13</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>4280</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>563</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G32" s="1">
         <v>-3.1E-2</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>0.9</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I32" s="1">
         <v>-4.2599999999999999E-2</v>
-      </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>4130</v>
-      </c>
-      <c r="C31" s="1">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="F31">
-        <v>440</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-0.2185</v>
-      </c>
-      <c r="H31">
-        <v>0.74</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-0.17780000000000001</v>
-      </c>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>4682</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.13370000000000001</v>
-      </c>
-      <c r="F32">
-        <v>631</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.51349999999999996</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>5010</v>
+        <v>4130</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0099999999999996E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F33">
-        <v>614</v>
+        <v>440</v>
       </c>
       <c r="G33" s="1">
-        <v>-2.69E-2</v>
+        <v>-0.2185</v>
       </c>
       <c r="H33">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="I33" s="1">
-        <v>-3.5700000000000003E-2</v>
+        <v>-0.17780000000000001</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>6910</v>
+        <v>4682</v>
       </c>
       <c r="C34" s="1">
-        <v>0.37919999999999998</v>
-      </c>
-      <c r="D34">
-        <v>2129</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="F34">
-        <v>1666</v>
+        <v>631</v>
       </c>
       <c r="G34" s="1">
-        <v>1.7134</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H34">
-        <v>2.57</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I34" s="1">
-        <v>1.3795999999999999</v>
-      </c>
-      <c r="J34" s="18">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>5010</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="F35">
+        <v>614</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.08</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-3.5700000000000003E-2</v>
+      </c>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>6910</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="D36">
+        <v>2129</v>
+      </c>
+      <c r="F36">
+        <v>1666</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.7134</v>
+      </c>
+      <c r="H36">
+        <v>2.57</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.3795999999999999</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>18</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>9714</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C37" s="2">
         <v>0.41</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>2612</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="2">
         <v>0.23</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>3047</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G37" s="2">
         <v>0.83</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <v>4.82</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I37" s="2">
         <v>0.88</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J37" s="18">
         <v>0.59899999999999998</v>
       </c>
-      <c r="K35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
+      <c r="K37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D41" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="V15:AE16"/>
-    <mergeCell ref="AF15:AO16"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="I3:O4"/>
-    <mergeCell ref="P3:X4"/>
-    <mergeCell ref="Y3:AG4"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="K35:P35"/>
+  <mergeCells count="14">
+    <mergeCell ref="D41:J45"/>
+    <mergeCell ref="F12:O14"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="K37:P37"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B15:K16"/>
-    <mergeCell ref="L15:U16"/>
+    <mergeCell ref="B17:K18"/>
+    <mergeCell ref="L17:U18"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AB4"/>
+    <mergeCell ref="V17:AE18"/>
+    <mergeCell ref="AF17:AO18"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="AC3:AK4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3412,91 +3614,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3511,10 +3713,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -3535,13 +3737,13 @@
         <v>6</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -3562,13 +3764,13 @@
         <v>6</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -3589,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>6</v>
@@ -3656,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI5" s="10"/>
     </row>
@@ -3691,7 +3893,7 @@
         <v>0.314</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -3729,7 +3931,7 @@
         <v>1.9630000000000001</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AI6" s="18">
         <v>0.69599999999999995</v>
@@ -3755,7 +3957,7 @@
         <v>1.175</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="18">
         <v>0.622</v>
@@ -3773,13 +3975,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="18">
         <v>1.006</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S7">
         <v>7.0000000000000007E-2</v>
@@ -3797,13 +3999,13 @@
         <v>1.984</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z7" s="13">
         <v>0.85</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
@@ -3826,7 +4028,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3838,10 +4040,10 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -3869,7 +4071,7 @@
         <v>0.92</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -3892,7 +4094,7 @@
         <v>1.3</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>0.70299999999999996</v>
@@ -3923,91 +4125,91 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4022,10 +4224,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -4046,13 +4248,13 @@
         <v>6</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -4073,13 +4275,13 @@
         <v>6</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -4100,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>6</v>
@@ -4128,7 +4330,7 @@
         <v>0.31</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA5" s="1">
         <v>0.36899999999999999</v>
@@ -4154,7 +4356,7 @@
         <v>-0.59</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="2">
         <v>0.43</v>
@@ -4171,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -4183,10 +4385,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -4211,7 +4413,7 @@
         <v>0.22</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4231,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:K15"/>
     </sheetView>
   </sheetViews>
@@ -4290,98 +4492,98 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
@@ -4414,17 +4616,17 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
+      <c r="AE5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
       <c r="AN5" s="14"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
@@ -4441,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>6</v>
@@ -4468,7 +4670,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
@@ -4495,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
@@ -4534,7 +4736,7 @@
         <v>6</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="8" t="s">
         <v>6</v>
@@ -4984,148 +5186,148 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="L16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
+      <c r="V16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
+      <c r="AF16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -5139,97 +5341,97 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" t="s">
-        <v>63</v>
-      </c>
       <c r="S17" t="s">
         <v>6</v>
       </c>
       <c r="V17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
         <v>60</v>
       </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>63</v>
-      </c>
       <c r="AC17" t="s">
         <v>6</v>
       </c>
       <c r="AF17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="s">
         <v>60</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>63</v>
       </c>
       <c r="AM17" t="s">
         <v>6</v>
@@ -5309,24 +5511,24 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D21" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="D21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -5342,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -5354,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ26"/>
       <c r="AN26"/>
@@ -5382,14 +5584,14 @@
       <c r="J27" s="13">
         <v>0.54</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="K27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
@@ -5425,14 +5627,14 @@
       <c r="J28" s="13">
         <v>0.6</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="K28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
@@ -5468,14 +5670,14 @@
       <c r="J29" s="13">
         <v>0.59</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="K29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
@@ -5511,14 +5713,14 @@
       <c r="J30" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+      <c r="K30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
@@ -5554,30 +5756,20 @@
       <c r="J31" s="13">
         <v>0.49</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
+      <c r="K31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="AJ31"/>
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D21:J22"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="T3:AD4"/>
-    <mergeCell ref="AE3:AO4"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
     <mergeCell ref="K31:P31"/>
     <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="B16:E16"/>
@@ -5588,6 +5780,16 @@
     <mergeCell ref="L14:U15"/>
     <mergeCell ref="V14:AE15"/>
     <mergeCell ref="AF14:AO15"/>
+    <mergeCell ref="AE3:AO4"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="D21:J22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AD4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5600,7 +5802,7 @@
   <dimension ref="C8:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:I22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -401,10 +401,6 @@
     <t>增长</t>
   </si>
   <si>
-    <t>19 Q 1的datacenter是关键，增速100%就到8亿了
-，目前DC增速在减慢</t>
-  </si>
-  <si>
     <t>净利润</t>
   </si>
   <si>
@@ -1032,12 +1028,51 @@
 预计GAAP和非GAAP运营支出分别约为8.1亿美元和6.85亿美元。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>19 Q 1的datacenter是关键，增速100%就到8亿了
+，目前DC增速在减慢,最终增上71%，不知道是不是互联网巨头在用自家芯片的原因？需要等待下一波的爆发
+我们发布了关于自动驾驶汽车发展的重要产品公告，并在2035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年前建立了一个总计可达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亿美元的市场机会。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,12 +1139,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1133,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1220,12 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,6 +1234,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,21 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,510 +1607,510 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2103,7 +2126,7 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2146,90 +2169,90 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="21" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="21" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -2244,8 +2267,8 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>67</v>
+      <c r="F5" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2271,8 +2294,8 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>67</v>
+      <c r="O5" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -2727,150 +2750,150 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="E12" s="26"/>
-      <c r="F12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="AB12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E13" s="4"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="AB13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E14" s="4"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
       <c r="AB14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20" t="s">
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -3275,32 +3298,75 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="29">
-        <v>1720</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23">
+        <v>1723</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="C25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="D23">
+        <v>251</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="10">
+        <v>701</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.71</v>
+      </c>
+      <c r="H23">
+        <v>145</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J23">
+        <v>387</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -3316,7 +3382,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -3328,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.15">
@@ -3476,14 +3542,14 @@
       <c r="J36" s="18">
         <v>0.58799999999999997</v>
       </c>
-      <c r="K36" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
+      <c r="K36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
@@ -3516,68 +3582,64 @@
       <c r="J37" s="18">
         <v>0.59899999999999998</v>
       </c>
-      <c r="K37" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
+      <c r="K37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D41" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="D41" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D41:J45"/>
-    <mergeCell ref="F12:O14"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="K37:P37"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="L17:U18"/>
@@ -3586,8 +3648,12 @@
     <mergeCell ref="T3:AB4"/>
     <mergeCell ref="V17:AE18"/>
     <mergeCell ref="AF17:AO18"/>
-    <mergeCell ref="C25:G26"/>
     <mergeCell ref="AC3:AK4"/>
+    <mergeCell ref="C25:K27"/>
+    <mergeCell ref="D41:J45"/>
+    <mergeCell ref="F12:O14"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="K37:P37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,91 +3680,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3713,10 +3779,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -3737,13 +3803,13 @@
         <v>6</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -3764,13 +3830,13 @@
         <v>6</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -3791,7 +3857,7 @@
         <v>6</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>6</v>
@@ -3858,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI5" s="10"/>
     </row>
@@ -3893,7 +3959,7 @@
         <v>0.314</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -3931,7 +3997,7 @@
         <v>1.9630000000000001</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI6" s="18">
         <v>0.69599999999999995</v>
@@ -3957,7 +4023,7 @@
         <v>1.175</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="18">
         <v>0.622</v>
@@ -3975,13 +4041,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="18">
         <v>1.006</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7">
         <v>7.0000000000000007E-2</v>
@@ -3999,13 +4065,13 @@
         <v>1.984</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="13">
         <v>0.85</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
@@ -4028,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -4040,10 +4106,10 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
         <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -4071,7 +4137,7 @@
         <v>0.92</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -4094,7 +4160,7 @@
         <v>1.3</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1">
         <v>0.70299999999999996</v>
@@ -4125,91 +4191,91 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4224,10 +4290,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -4248,13 +4314,13 @@
         <v>6</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -4275,13 +4341,13 @@
         <v>6</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -4302,7 +4368,7 @@
         <v>6</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>6</v>
@@ -4330,7 +4396,7 @@
         <v>0.31</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="1">
         <v>0.36899999999999999</v>
@@ -4356,7 +4422,7 @@
         <v>-0.59</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="2">
         <v>0.43</v>
@@ -4373,7 +4439,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -4385,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
         <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -4413,7 +4479,7 @@
         <v>0.22</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4492,98 +4558,98 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="24" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
@@ -4616,17 +4682,17 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
+      <c r="AE5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
       <c r="AN5" s="14"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
@@ -4643,7 +4709,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>6</v>
@@ -4670,7 +4736,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
@@ -4697,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
@@ -4736,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL6" s="8" t="s">
         <v>6</v>
@@ -5186,148 +5252,148 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20" t="s">
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="L16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="V16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
+      <c r="AF16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -5341,97 +5407,97 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
         <v>57</v>
       </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" t="s">
-        <v>60</v>
-      </c>
       <c r="S17" t="s">
         <v>6</v>
       </c>
       <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
         <v>57</v>
       </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
         <v>59</v>
       </c>
-      <c r="AA17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>60</v>
-      </c>
       <c r="AC17" t="s">
         <v>6</v>
       </c>
       <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="s">
         <v>57</v>
       </c>
-      <c r="AG17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ17" s="10" t="s">
+      <c r="AK17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="s">
         <v>59</v>
-      </c>
-      <c r="AK17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>60</v>
       </c>
       <c r="AM17" t="s">
         <v>6</v>
@@ -5511,24 +5577,24 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="D21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -5544,7 +5610,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -5556,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ26"/>
       <c r="AN26"/>
@@ -5584,14 +5650,14 @@
       <c r="J27" s="13">
         <v>0.54</v>
       </c>
-      <c r="K27" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="K27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
@@ -5627,14 +5693,14 @@
       <c r="J28" s="13">
         <v>0.6</v>
       </c>
-      <c r="K28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="K28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
@@ -5670,14 +5736,14 @@
       <c r="J29" s="13">
         <v>0.59</v>
       </c>
-      <c r="K29" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="K29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
@@ -5713,14 +5779,14 @@
       <c r="J30" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K30" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="K30" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
@@ -5756,21 +5822,21 @@
       <c r="J31" s="13">
         <v>0.49</v>
       </c>
-      <c r="K31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="K31" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
       <c r="AJ31"/>
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="D21:J22"/>
     <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L16:O16"/>
@@ -5780,16 +5846,16 @@
     <mergeCell ref="L14:U15"/>
     <mergeCell ref="V14:AE15"/>
     <mergeCell ref="AF14:AO15"/>
-    <mergeCell ref="AE3:AO4"/>
     <mergeCell ref="K27:P27"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="K29:P29"/>
     <mergeCell ref="K30:P30"/>
-    <mergeCell ref="D21:J22"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="K3:S4"/>
     <mergeCell ref="T3:AD4"/>
+    <mergeCell ref="AE3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,1041 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="70">
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q1（ 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q2（ 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q3（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q4（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>增长率</t>
+  </si>
+  <si>
+    <t>营收(m)</t>
+  </si>
+  <si>
+    <t>净利</t>
+  </si>
+  <si>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>营收</t>
+  </si>
+  <si>
+    <t>运营支出</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>专业视觉</t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>OEM&amp;IP</t>
+  </si>
+  <si>
+    <t>增长</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>16年股价，32-106，上涨231.25%，净利润增速+PE增加</t>
+  </si>
+  <si>
+    <t>17年股价，106-193，上涨82%约等于净利润增速</t>
+  </si>
+  <si>
+    <t>Q1（ 3月1号--5月31号）</t>
+  </si>
+  <si>
+    <t>Q2（6月1号--8月31号）</t>
+  </si>
+  <si>
+    <t>Q3（ 9月1号--11月31号）</t>
+  </si>
+  <si>
+    <t>Q4（12月1号--2月31号）</t>
+  </si>
+  <si>
+    <t>EPS增长</t>
+  </si>
+  <si>
+    <t>学生人数</t>
+  </si>
+  <si>
+    <t>人数增长</t>
+  </si>
+  <si>
+    <t>教学中心/城市</t>
+  </si>
+  <si>
+    <t>学生数量</t>
+  </si>
+  <si>
+    <t>78.8W</t>
+  </si>
+  <si>
+    <t>111.765w</t>
+  </si>
+  <si>
+    <t>133.66W</t>
+  </si>
+  <si>
+    <t>104W7760</t>
+  </si>
+  <si>
+    <t>224.238W</t>
+  </si>
+  <si>
+    <t>575/36</t>
+  </si>
+  <si>
+    <t>154w</t>
+  </si>
+  <si>
+    <t>579/38</t>
+  </si>
+  <si>
+    <t>230.98W</t>
+  </si>
+  <si>
+    <t>393.47W</t>
+  </si>
+  <si>
+    <t>142w</t>
+  </si>
+  <si>
+    <t>187w7100</t>
+  </si>
+  <si>
+    <t>截至2017年5月31日，学习中心总数达855家，与去年同期相比增加107家，与上季度相比增加52家，2016年同期学习中心总数为748家。截至2017年5月31日，学校总数为77家。</t>
+  </si>
+  <si>
+    <t>Q1（ 1月1号--3月31号）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q2（ 4月1号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Q3（ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q4（ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号）</t>
+    </r>
+  </si>
+  <si>
+    <t>GAAP（算上投资收益）</t>
+  </si>
+  <si>
+    <t>经营利润</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年股价，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年股价，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%小于净利润增速</t>
+    </r>
+  </si>
+  <si>
+    <t>15年股价，112-151，上涨34%大于净利润增速</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16年股价，150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%小于净利润增速</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17年股价，187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%大于净利润增速</t>
+    </r>
+  </si>
+  <si>
+    <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已
+QQ的月活用户17年3月份的季报就显示已经见顶了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营支出</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我们机会的核心是人工智能计算需求的惊人增长，就像传统计算已经放缓一样。
+我们开创的GPU计算方法非常适合填补这一真空。而我们对Tensor Core GPU
+的发明进一步加强了我们强化AI时代的强大地位，“他说。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA对2019财年第二季度的展望如下：
+预计收入将达到31亿美元，上下两个百分点。
+预计GAAP和非GAAP毛利率分别为63.3％和63.5％，上下浮动50个基点。
+预计GAAP和非GAAP运营支出分别约为8.1亿美元和6.85亿美元。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19 Q 1的datacenter是关键，增速100%就到8亿了
+，目前DC增速在减慢,最终增上71%，不知道是不是互联网巨头在用自家芯片的原因？需要等待下一波的爆发
+我们发布了关于自动驾驶汽车发展的重要产品公告，并在2035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年前建立了一个总计可达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亿美元的市场机会。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>优秀公司指标
 营收的增长速度要超出运营支出的增长速度，代表这公司的产品好卖
 净利润增长率超过营收增长率
@@ -31,1040 +1066,6 @@
 （1）营收持续增长，对应于提价、扩量，
 （2）毛利率提升，意味着龙头地位的巩固，竞争力强；
 （3）费用率降低，表明公司管理的好。这三项只要有一项能够提升，就可能增加利润。但最好是三项一起，才是稳定、良性的增加公司利润。比如如果营业收入不增长，只提高毛利跟控制成本，这样的利润增长是有天花板的。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q1（ 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q2（ 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q3（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q4（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>增长率</t>
-  </si>
-  <si>
-    <t>营收(m)</t>
-  </si>
-  <si>
-    <t>净利</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>营收</t>
-  </si>
-  <si>
-    <t>运营支出</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>专业视觉</t>
-  </si>
-  <si>
-    <t>Datacenter</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>OEM&amp;IP</t>
-  </si>
-  <si>
-    <t>增长</t>
-  </si>
-  <si>
-    <t>净利润</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>16年股价，32-106，上涨231.25%，净利润增速+PE增加</t>
-  </si>
-  <si>
-    <t>17年股价，106-193，上涨82%约等于净利润增速</t>
-  </si>
-  <si>
-    <t>Q1（ 3月1号--5月31号）</t>
-  </si>
-  <si>
-    <t>Q2（6月1号--8月31号）</t>
-  </si>
-  <si>
-    <t>Q3（ 9月1号--11月31号）</t>
-  </si>
-  <si>
-    <t>Q4（12月1号--2月31号）</t>
-  </si>
-  <si>
-    <t>EPS增长</t>
-  </si>
-  <si>
-    <t>学生人数</t>
-  </si>
-  <si>
-    <t>人数增长</t>
-  </si>
-  <si>
-    <t>教学中心/城市</t>
-  </si>
-  <si>
-    <t>学生数量</t>
-  </si>
-  <si>
-    <t>78.8W</t>
-  </si>
-  <si>
-    <t>111.765w</t>
-  </si>
-  <si>
-    <t>133.66W</t>
-  </si>
-  <si>
-    <t>104W7760</t>
-  </si>
-  <si>
-    <t>224.238W</t>
-  </si>
-  <si>
-    <t>575/36</t>
-  </si>
-  <si>
-    <t>154w</t>
-  </si>
-  <si>
-    <t>579/38</t>
-  </si>
-  <si>
-    <t>230.98W</t>
-  </si>
-  <si>
-    <t>393.47W</t>
-  </si>
-  <si>
-    <t>142w</t>
-  </si>
-  <si>
-    <t>187w7100</t>
-  </si>
-  <si>
-    <t>截至2017年5月31日，学习中心总数达855家，与去年同期相比增加107家，与上季度相比增加52家，2016年同期学习中心总数为748家。截至2017年5月31日，学校总数为77家。</t>
-  </si>
-  <si>
-    <t>Q1（ 1月1号--3月31号）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q2（ 4月1号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Q3（ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q4（ 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号）</t>
-    </r>
-  </si>
-  <si>
-    <t>GAAP（算上投资收益）</t>
-  </si>
-  <si>
-    <t>经营利润</t>
-  </si>
-  <si>
-    <t>GAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t>广告</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年股价，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>49.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98.17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，上涨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年股价，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100.14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111.65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，上涨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%小于净利润增速</t>
-    </r>
-  </si>
-  <si>
-    <t>15年股价，112-151，上涨34%大于净利润增速</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16年股价，150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>189</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，上涨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%小于净利润增速</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17年股价，187</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>406</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，上涨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%大于净利润增速</t>
-    </r>
-  </si>
-  <si>
-    <t>个人觉得17 Q4的游戏增长没什么问题，就是比Q3增长少一些而已
-QQ的月活用户17年3月份的季报就显示已经见顶了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营支出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>“我们机会的核心是人工智能计算需求的惊人增长，就像传统计算已经放缓一样。
-我们开创的GPU计算方法非常适合填补这一真空。而我们对Tensor Core GPU
-的发明进一步加强了我们强化AI时代的强大地位，“他说。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVIDIA对2019财年第二季度的展望如下：
-预计收入将达到31亿美元，上下两个百分点。
-预计GAAP和非GAAP毛利率分别为63.3％和63.5％，上下浮动50个基点。
-预计GAAP和非GAAP运营支出分别约为8.1亿美元和6.85亿美元。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19 Q 1的datacenter是关键，增速100%就到8亿了
-，目前DC增速在减慢,最终增上71%，不知道是不是互联网巨头在用自家芯片的原因？需要等待下一波的爆发
-我们发布了关于自动驾驶汽车发展的重要产品公告，并在2035</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年前建立了一个总计可达到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亿美元的市场机会。</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,14 +1242,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,15 +1607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2125,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2171,7 +2178,7 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -2182,7 +2189,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -2193,7 +2200,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22"/>
@@ -2204,7 +2211,7 @@
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22"/>
@@ -2256,112 +2263,112 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="AF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
@@ -2372,13 +2379,13 @@
         <v>0.24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1103</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>137</v>
@@ -2388,13 +2395,13 @@
         <v>0.22</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6">
         <v>1103</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6">
         <v>128</v>
@@ -2404,13 +2411,13 @@
         <v>0.31</v>
       </c>
       <c r="U6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6">
         <v>1225</v>
       </c>
       <c r="W6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6">
         <v>173</v>
@@ -2420,13 +2427,13 @@
         <v>0.35</v>
       </c>
       <c r="AD6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE6">
         <v>1251</v>
       </c>
       <c r="AF6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6">
         <v>193</v>
@@ -2752,7 +2759,7 @@
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E12" s="19"/>
       <c r="F12" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -2801,7 +2808,7 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B17" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -2813,7 +2820,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -2825,7 +2832,7 @@
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
       <c r="V17" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
@@ -2837,7 +2844,7 @@
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG17" s="22"/>
       <c r="AH17" s="22"/>
@@ -2901,124 +2908,124 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="V19" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" t="s">
         <v>17</v>
       </c>
-      <c r="M19" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="Y19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="10" t="s">
+      <c r="AA19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="AC19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" t="s">
         <v>20</v>
       </c>
-      <c r="S19" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="AE19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" t="s">
         <v>17</v>
       </c>
-      <c r="W19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="AI19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z19" s="10" t="s">
+      <c r="AK19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL19" t="s">
         <v>19</v>
       </c>
-      <c r="AA19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AM19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN19" t="s">
         <v>20</v>
       </c>
-      <c r="AC19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>21</v>
-      </c>
       <c r="AO19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.15">
@@ -3026,20 +3033,20 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -3335,7 +3342,7 @@
     </row>
     <row r="25" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -3370,31 +3377,31 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.15">
@@ -3405,13 +3412,13 @@
         <v>3998</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>581</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>0.94</v>
@@ -3543,7 +3550,7 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -3583,7 +3590,7 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -3593,7 +3600,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D41" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -3640,6 +3647,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF17:AO18"/>
+    <mergeCell ref="AC3:AK4"/>
+    <mergeCell ref="C25:K27"/>
+    <mergeCell ref="D41:J45"/>
+    <mergeCell ref="F12:O14"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="K37:P37"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="L17:U18"/>
@@ -3647,13 +3661,6 @@
     <mergeCell ref="K3:S4"/>
     <mergeCell ref="T3:AB4"/>
     <mergeCell ref="V17:AE18"/>
-    <mergeCell ref="AF17:AO18"/>
-    <mergeCell ref="AC3:AK4"/>
-    <mergeCell ref="C25:K27"/>
-    <mergeCell ref="D41:J45"/>
-    <mergeCell ref="F12:O14"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="K37:P37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,7 +3688,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3691,7 +3698,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -3702,7 +3709,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
       <c r="S1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -3713,7 +3720,7 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
@@ -3761,106 +3768,106 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="AI3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
@@ -3889,7 +3896,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3900,19 +3907,19 @@
         <v>142.19999999999999</v>
       </c>
       <c r="V5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W5">
         <v>9.6</v>
       </c>
       <c r="X5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5">
         <v>175</v>
@@ -3921,10 +3928,10 @@
         <v>10.9</v>
       </c>
       <c r="AG5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI5" s="10"/>
     </row>
@@ -3942,7 +3949,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3959,7 +3966,7 @@
         <v>0.314</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -3982,7 +3989,7 @@
         <v>0.36</v>
       </c>
       <c r="AC6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD6">
         <v>316.3</v>
@@ -3997,7 +4004,7 @@
         <v>1.9630000000000001</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI6" s="18">
         <v>0.69599999999999995</v>
@@ -4023,7 +4030,7 @@
         <v>1.175</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18">
         <v>0.622</v>
@@ -4041,13 +4048,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="18">
         <v>1.006</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S7">
         <v>7.0000000000000007E-2</v>
@@ -4065,13 +4072,13 @@
         <v>1.984</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="13">
         <v>0.85</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
@@ -4088,28 +4095,28 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
         <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -4137,7 +4144,7 @@
         <v>0.92</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -4160,7 +4167,7 @@
         <v>1.3</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1">
         <v>0.70299999999999996</v>
@@ -4192,7 +4199,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4202,7 +4209,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -4213,7 +4220,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
       <c r="S1" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -4224,7 +4231,7 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
@@ -4272,106 +4279,106 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="AI3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
@@ -4396,7 +4403,7 @@
         <v>0.31</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="1">
         <v>0.36899999999999999</v>
@@ -4422,7 +4429,7 @@
         <v>-0.59</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2">
         <v>0.43</v>
@@ -4433,28 +4440,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
         <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -4479,7 +4486,7 @@
         <v>0.22</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4507,7 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K15"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4559,8 +4566,8 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
-      <c r="B3" s="26" t="s">
-        <v>49</v>
+      <c r="B3" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -4570,8 +4577,8 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="26" t="s">
-        <v>50</v>
+      <c r="K3" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -4581,8 +4588,8 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="27" t="s">
-        <v>51</v>
+      <c r="T3" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22"/>
@@ -4594,8 +4601,8 @@
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
-      <c r="AE3" s="26" t="s">
-        <v>52</v>
+      <c r="AE3" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
@@ -4682,8 +4689,8 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="28" t="s">
-        <v>53</v>
+      <c r="AE5" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
@@ -4697,124 +4704,124 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="AH6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="R6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO6" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.15">
@@ -5253,7 +5260,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B14" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -5265,7 +5272,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -5277,7 +5284,7 @@
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
@@ -5289,7 +5296,7 @@
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
       <c r="AF14" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG14" s="22"/>
       <c r="AH14" s="22"/>
@@ -5353,7 +5360,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -5365,7 +5372,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -5377,7 +5384,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
@@ -5389,7 +5396,7 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG16" s="22"/>
       <c r="AH16" s="22"/>
@@ -5407,100 +5414,100 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" t="s">
-        <v>59</v>
-      </c>
       <c r="S17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" t="s">
         <v>56</v>
       </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>59</v>
-      </c>
       <c r="AC17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH17" t="s">
         <v>56</v>
       </c>
-      <c r="AG17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AI17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ17" s="10" t="s">
+      <c r="AK17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>59</v>
-      </c>
       <c r="AM17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN17"/>
       <c r="AO17"/>
@@ -5578,7 +5585,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="D21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -5598,31 +5605,31 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="AJ26"/>
       <c r="AN26"/>
@@ -5650,14 +5657,14 @@
       <c r="J27" s="13">
         <v>0.54</v>
       </c>
-      <c r="K27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="K27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
@@ -5693,14 +5700,14 @@
       <c r="J28" s="13">
         <v>0.6</v>
       </c>
-      <c r="K28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
+      <c r="K28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
@@ -5736,14 +5743,14 @@
       <c r="J29" s="13">
         <v>0.59</v>
       </c>
-      <c r="K29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="K29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
@@ -5779,14 +5786,14 @@
       <c r="J30" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K30" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
+      <c r="K30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
@@ -5822,20 +5829,30 @@
       <c r="J31" s="13">
         <v>0.49</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
       <c r="AJ31"/>
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AD4"/>
+    <mergeCell ref="AE3:AO4"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="D21:J22"/>
     <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="B16:E16"/>
@@ -5846,16 +5863,6 @@
     <mergeCell ref="L14:U15"/>
     <mergeCell ref="V14:AE15"/>
     <mergeCell ref="AF14:AO15"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="T3:AD4"/>
-    <mergeCell ref="AE3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5915,13 +5922,13 @@
         <v>0.99</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>2173</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>704</v>

--- a/公司财报.xlsx
+++ b/公司财报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -1068,12 +1068,43 @@
 （3）费用率降低，表明公司管理的好。这三项只要有一项能够提升，就可能增加利润。但最好是三项一起，才是稳定、良性的增加公司利润。比如如果营业收入不增长，只提高毛利跟控制成本，这样的利润增长是有天花板的。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>投资收益</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-gaap(扣除投资收益)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON-GAAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>經營利潤率</t>
+  </si>
+  <si>
+    <t>经营成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资收益</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,6 +1171,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF33353C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1163,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,6 +1264,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,9 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,6 +1293,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1607,517 +1665,517 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2176,90 +2234,90 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23" t="s">
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -2758,149 +2816,149 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E12" s="19"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
       <c r="AB12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E13" s="4"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
       <c r="AB13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="E14" s="4"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
       <c r="AB14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22" t="s">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -3341,39 +3399,39 @@
       </c>
     </row>
     <row r="25" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -3549,14 +3607,14 @@
       <c r="J36" s="18">
         <v>0.58799999999999997</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
@@ -3589,64 +3647,71 @@
       <c r="J37" s="18">
         <v>0.59899999999999998</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B17:K18"/>
+    <mergeCell ref="L17:U18"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="T3:AB4"/>
+    <mergeCell ref="V17:AE18"/>
     <mergeCell ref="AF17:AO18"/>
     <mergeCell ref="AC3:AK4"/>
     <mergeCell ref="C25:K27"/>
@@ -3654,13 +3719,6 @@
     <mergeCell ref="F12:O14"/>
     <mergeCell ref="K36:P36"/>
     <mergeCell ref="K37:P37"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B17:K18"/>
-    <mergeCell ref="L17:U18"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="T3:AB4"/>
-    <mergeCell ref="V17:AE18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3687,84 +3745,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -4198,84 +4256,84 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -4504,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4524,7 +4582,7 @@
     <col min="40" max="41" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4544,7 +4602,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4564,145 +4622,181 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
       <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="27" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="28" t="s">
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="27" t="s">
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="26" t="s">
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="14"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="1"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4710,43 +4804,41 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
       </c>
       <c r="Q6" t="s">
         <v>7</v>
@@ -4754,8 +4846,8 @@
       <c r="R6" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>8</v>
+      <c r="S6" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="T6" t="s">
         <v>4</v>
@@ -4775,121 +4867,155 @@
       <c r="Y6" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AL6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AN6" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="s">
         <v>6</v>
       </c>
-      <c r="AH6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AQ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AS6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AL6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="8" t="s">
+      <c r="AU6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="14" t="s">
+      <c r="AW6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7">
         <v>0.69</v>
       </c>
-      <c r="D7" s="9">
+      <c r="F7" s="9">
         <v>18400</v>
       </c>
-      <c r="F7" s="9">
+      <c r="J7" s="9">
         <v>7790</v>
       </c>
-      <c r="H7" s="9">
+      <c r="N7" s="9">
         <v>6432</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K7">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7">
         <v>0.623</v>
       </c>
-      <c r="M7" s="9">
+      <c r="V7" s="9">
         <v>19746</v>
       </c>
-      <c r="O7" s="9">
+      <c r="X7" s="9">
         <v>7843</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Z7" s="9">
         <v>5826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="AB7" s="2">
         <v>0.61</v>
       </c>
-      <c r="T7">
+      <c r="AC7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="V7" s="9">
+      <c r="AE7" s="9">
         <v>19808</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AG7" s="9">
         <v>7515</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AJ7"/>
+      <c r="AK7" s="9">
         <v>5676</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AM7" s="2">
         <v>0.63</v>
       </c>
-      <c r="AE7">
+      <c r="AN7">
         <v>0.625</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AO7"/>
+      <c r="AP7" s="9">
         <v>20978</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="9">
         <v>7394</v>
       </c>
-      <c r="AM7" s="9">
+      <c r="AV7" s="9">
         <v>5954</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -4899,116 +5025,127 @@
       <c r="C8" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9">
         <v>22399</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>0.22</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="9">
         <v>9372</v>
       </c>
-      <c r="G8" s="2">
+      <c r="K8" s="2">
         <v>0.2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="9">
         <v>6930</v>
       </c>
-      <c r="I8" s="2">
+      <c r="O8" s="2">
         <v>0.08</v>
       </c>
-      <c r="J8" s="2">
+      <c r="P8" s="2">
         <v>0.59</v>
       </c>
-      <c r="K8">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8">
         <v>0.77800000000000002</v>
       </c>
-      <c r="L8" s="2">
+      <c r="U8" s="2">
         <v>0.25</v>
       </c>
-      <c r="M8" s="9">
+      <c r="V8" s="9">
         <v>23429</v>
       </c>
-      <c r="N8" s="2">
+      <c r="W8" s="2">
         <v>0.19</v>
       </c>
-      <c r="O8" s="9">
+      <c r="X8" s="9">
         <v>10036</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Y8" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Z8" s="9">
         <v>7396</v>
       </c>
-      <c r="R8" s="2">
+      <c r="AA8" s="2">
         <v>0.27</v>
       </c>
-      <c r="S8" s="2">
+      <c r="AB8" s="2">
         <v>0.61</v>
       </c>
-      <c r="T8">
+      <c r="AC8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="U8" s="2">
+      <c r="AD8" s="2">
         <v>0.31</v>
       </c>
-      <c r="V8" s="9">
+      <c r="AE8" s="9">
         <v>26594</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AF8" s="2">
         <v>0.34</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AG8" s="9">
         <v>10331</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AH8" s="2">
         <v>0.37</v>
       </c>
-      <c r="Z8">
+      <c r="AI8">
         <v>11014</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AJ8"/>
+      <c r="AK8" s="9">
         <v>7584</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AL8" s="2">
         <v>0.34</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AM8" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AN8" s="8">
         <v>0.75900000000000001</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AO8" s="2">
         <v>0.21</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AP8" s="9">
         <v>30441</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AQ8" s="2">
         <v>0.45</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AR8" s="9">
         <v>17780</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="12">
         <v>10888</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AU8" s="2">
         <v>0.47</v>
       </c>
-      <c r="AM8" s="9">
+      <c r="AV8" s="9">
         <v>7198</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AW8" s="1">
         <v>0.21</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AX8" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -5018,122 +5155,128 @@
       <c r="C9" s="2">
         <v>0.32</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9">
         <v>31995</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="F9" s="9">
-        <v>13398</v>
       </c>
       <c r="G9" s="2">
         <v>0.43</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="9">
+        <v>13398</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="9">
         <v>9268</v>
       </c>
-      <c r="I9" s="2">
+      <c r="O9" s="2">
         <v>0.34</v>
       </c>
-      <c r="J9" s="2">
+      <c r="P9" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K9">
+      <c r="T9">
         <v>1.133</v>
       </c>
-      <c r="L9" s="2">
+      <c r="U9" s="2">
         <v>0.46</v>
       </c>
-      <c r="M9" s="9">
+      <c r="V9" s="9">
         <v>35691</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="O9" s="9">
-        <v>14329</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>10880</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="T9">
-        <v>1.121</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="V9" s="9">
-        <v>40388</v>
       </c>
       <c r="W9" s="2">
         <v>0.52</v>
       </c>
       <c r="X9" s="9">
+        <v>14329</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>10880</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC9">
+        <v>1.121</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>40388</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AG9" s="9">
         <v>14460</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AH9" s="2">
         <v>0.4</v>
       </c>
-      <c r="Z9">
+      <c r="AI9">
         <v>18560</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AJ9" s="2">
         <v>0.68</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AK9" s="9">
         <v>10776</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AL9" s="2">
         <v>0.42</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AM9" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE9">
+      <c r="AN9">
         <v>1.1080000000000001</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AO9" s="2">
         <v>0.46</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AP9" s="9">
         <v>43864</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AQ9" s="2">
         <v>0.44</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AR9" s="12">
         <v>23626</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AS9" s="15">
         <v>0.33</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AT9" s="9">
         <v>13930</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AU9" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AV9" s="12">
         <v>10523</v>
       </c>
-      <c r="AN9" s="15">
+      <c r="AW9" s="15">
         <v>0.46</v>
       </c>
-      <c r="AO9" s="15">
+      <c r="AX9" s="15">
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -5143,264 +5286,339 @@
       <c r="C10" s="2">
         <v>0.41</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="20">
+        <v>1.522</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="9">
         <v>49552</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F10" s="9">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="9">
         <v>19272</v>
       </c>
-      <c r="G10" s="2">
+      <c r="K10" s="2">
         <v>0.44</v>
       </c>
-      <c r="H10" s="9">
-        <v>14548</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="34">
+        <v>14476</v>
+      </c>
+      <c r="O10" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J10" s="2">
+      <c r="P10" s="2">
         <v>0.51</v>
       </c>
-      <c r="K10" s="8">
+      <c r="Q10" s="9">
+        <v>12993</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="35">
+        <v>0.37</v>
+      </c>
+      <c r="T10" s="8">
         <v>1.7210000000000001</v>
       </c>
-      <c r="L10" s="2">
+      <c r="U10" s="2">
         <v>0.44</v>
       </c>
-      <c r="M10" s="12">
+      <c r="V10" s="12">
         <v>56606</v>
       </c>
-      <c r="N10" s="2">
+      <c r="W10" s="2">
         <v>0.59</v>
       </c>
-      <c r="O10" s="12">
+      <c r="X10" s="12">
         <v>22560</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>18254</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="V10" s="12">
-        <v>65210</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="X10" s="9">
-        <v>22746</v>
       </c>
       <c r="Y10" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="12">
+        <v>18254</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>65210</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>22746</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AI10" s="9">
         <v>33529</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AJ10" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AK10" s="12">
         <v>18047</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AL10" s="2">
         <v>0.67</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AM10" s="2">
         <v>0.48</v>
       </c>
-      <c r="AE10">
+      <c r="AN10">
         <v>2.177</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AO10" s="2">
         <v>0.96</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AP10" s="9">
         <v>66392</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AQ10" s="2">
         <v>0.51</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AR10" s="12">
         <v>31495</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AS10" s="15">
         <v>0.33</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AT10" s="9">
         <v>21853</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AU10" s="2">
         <v>0.85</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AV10" s="12">
         <v>21622</v>
       </c>
-      <c r="AN10" s="15">
+      <c r="AW10" s="15">
         <v>1.05</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AX10" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B14" s="22" t="s">
+    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.915</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="9">
+        <v>73528</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="H11" s="2">
+        <v>364.86</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J11" s="9">
+        <v>30692</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="L11" s="8">
+        <v>7585</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="34">
+        <v>23290</v>
+      </c>
+      <c r="O11" s="35">
+        <v>0.61</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>18313</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S11" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="AJ11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AS11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22" t="s">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="B16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="22" t="s">
+      <c r="AF16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -5583,25 +5801,54 @@
         <v>1.21</v>
       </c>
     </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>218</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F19" s="20">
+        <v>106.89</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H19" s="20">
+        <v>159.62</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -5617,18 +5864,24 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AJ26"/>
@@ -5646,25 +5899,26 @@
       <c r="D27">
         <v>27778</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27"/>
+      <c r="H27" s="9">
         <v>15563</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27">
+      <c r="I27" s="1"/>
+      <c r="J27">
         <v>1.66</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="13">
         <v>0.54</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="M27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
       <c r="AJ27"/>
       <c r="AN27"/>
       <c r="AO27"/>
@@ -5685,29 +5939,31 @@
       <c r="E28" s="1">
         <v>0.1114</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9">
         <v>23888</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>0.53490000000000004</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>2.5449999999999999</v>
       </c>
-      <c r="I28" s="1">
+      <c r="K28" s="1">
         <v>0.53310000000000002</v>
       </c>
-      <c r="J28" s="13">
+      <c r="L28" s="13">
         <v>0.6</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="M28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
       <c r="AJ28"/>
       <c r="AN28"/>
       <c r="AO28"/>
@@ -5728,29 +5984,31 @@
       <c r="E29" s="1">
         <v>0.34849999999999998</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9">
         <v>29108</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>0.2185</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>3.0550000000000002</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
         <v>0.20039999999999999</v>
       </c>
-      <c r="J29" s="13">
+      <c r="L29" s="13">
         <v>0.59</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="M29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
       <c r="AJ29"/>
       <c r="AN29"/>
       <c r="AO29"/>
@@ -5772,28 +6030,32 @@
         <v>0.61990000000000001</v>
       </c>
       <c r="F30" s="9">
+        <v>3594</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9">
         <v>41447</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>0.4239</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>4.3289999999999997</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J30" s="13">
+      <c r="L30" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="M30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
       <c r="AJ30"/>
       <c r="AN30"/>
       <c r="AO30"/>
@@ -5815,46 +6077,41 @@
         <v>0.79179999999999995</v>
       </c>
       <c r="F31" s="9">
+        <v>20140</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4.6037999999999997</v>
+      </c>
+      <c r="H31" s="9">
         <v>72471</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <v>0.74850000000000005</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>7.4989999999999997</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>0.73229999999999995</v>
       </c>
-      <c r="J31" s="13">
+      <c r="L31" s="13">
         <v>0.49</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="M31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
       <c r="AJ31"/>
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="T3:AD4"/>
-    <mergeCell ref="AE3:AO4"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="K31:P31"/>
+  <mergeCells count="23">
     <mergeCell ref="D21:J22"/>
-    <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="V16:Y16"/>
@@ -5863,78 +6120,901 @@
     <mergeCell ref="L14:U15"/>
     <mergeCell ref="V14:AE15"/>
     <mergeCell ref="AF14:AO15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:P4"/>
+    <mergeCell ref="T3:AB4"/>
+    <mergeCell ref="AC3:AM4"/>
+    <mergeCell ref="AN3:AX4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:I22"/>
+  <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="Q1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C8">
-        <v>5010</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8">
-        <v>614</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C9">
-        <v>6910</v>
-      </c>
-      <c r="G9">
-        <v>1666</v>
-      </c>
-      <c r="I9">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C21">
-        <v>0.35</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21">
-        <v>1401</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="I21">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C22">
-        <v>0.99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>2173</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>704</v>
-      </c>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A1" s="23"/>
+      <c r="B1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>0.69</v>
+      </c>
+      <c r="F5" s="9">
+        <v>18400</v>
+      </c>
+      <c r="J5" s="9">
+        <v>7790</v>
+      </c>
+      <c r="N5" s="9">
+        <v>6432</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5">
+        <v>0.623</v>
+      </c>
+      <c r="V5" s="9">
+        <v>19746</v>
+      </c>
+      <c r="X5" s="9">
+        <v>7843</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>5826</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AC5">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>19808</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>7515</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>5676</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="AN5">
+        <v>0.625</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>20978</v>
+      </c>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="9">
+        <v>7394</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>5954</v>
+      </c>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>0.73</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="9">
+        <v>22399</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="9">
+        <v>9372</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="9">
+        <v>6930</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V6" s="9">
+        <v>23429</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="X6" s="9">
+        <v>10036</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>7396</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AC6">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>26594</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>10331</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AI6">
+        <v>11014</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>7584</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>30441</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>17780</v>
+      </c>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="12">
+        <v>10888</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>7198</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>0.97</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="9">
+        <v>31995</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="9">
+        <v>13398</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="9">
+        <v>9268</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T7">
+        <v>1.133</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="V7" s="9">
+        <v>35691</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="X7" s="9">
+        <v>14329</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>10880</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC7">
+        <v>1.121</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>40388</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>14460</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AI7">
+        <v>18560</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>10776</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AN7">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>43864</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>23626</v>
+      </c>
+      <c r="AS7" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>13930</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AV7" s="12">
+        <v>10523</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.494</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1.522</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9">
+        <v>49552</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="9">
+        <v>19272</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="34">
+        <v>14476</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>12993</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="35">
+        <v>0.37</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="V8" s="12">
+        <v>56606</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="X8" s="12">
+        <v>22560</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>18254</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>65210</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>22746</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>33529</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>18047</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AN8">
+        <v>2.177</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>66392</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>31495</v>
+      </c>
+      <c r="AS8" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>21853</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AV8" s="12">
+        <v>21622</v>
+      </c>
+      <c r="AW8" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.915</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>73528</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="H9" s="2">
+        <v>364.86</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J9" s="9">
+        <v>30692</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="L9" s="8">
+        <v>7585</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="34">
+        <v>23290</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0.61</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>18313</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S9" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="AS9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+      <c r="N21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AC1:AM2"/>
+    <mergeCell ref="AN1:AX2"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P2"/>
+    <mergeCell ref="T1:AB2"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
